--- a/BIT707_A3_5001428_Requirements_Traceability_Matrix.xlsx
+++ b/BIT707_A3_5001428_Requirements_Traceability_Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\Open Polytechnic\BIT707 - Software Engineering\A3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891850FD-1FAE-451C-A42C-E0DAAD8F2C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E59F016-EC2E-4C12-A6D2-4782FF20EE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85E8416C-4E7A-4771-8FD4-4CA9EC927349}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{85E8416C-4E7A-4771-8FD4-4CA9EC927349}"/>
   </bookViews>
   <sheets>
     <sheet name="Traceability Matrix" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="510">
   <si>
     <t>R.1</t>
   </si>
@@ -1950,6 +1950,72 @@
   </si>
   <si>
     <t>Confirm tasks deleted from the CalendarView table are also deleted from the ListView table</t>
+  </si>
+  <si>
+    <t>Non Functional</t>
+  </si>
+  <si>
+    <t>As a developer at MySoftware Co. I want to be able to run the to-do list application without having to wait long for it to start up or retrieve my data so that I can get my work done efficiently without having to wait around for things to load</t>
+  </si>
+  <si>
+    <t>S.11</t>
+  </si>
+  <si>
+    <t>S.12</t>
+  </si>
+  <si>
+    <t>S.13</t>
+  </si>
+  <si>
+    <t>S.14</t>
+  </si>
+  <si>
+    <t>As a developer at My Software Co. I want to be able to run the to-do list application on my phone, computer or web-browser so that I can see my list of things to do regardless of which device I have access to at the time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a developer at My Software Co. I want to be able to view, add, edit or delete tasks from my ToDo list quickly and easily so that I can get my work done efficiently. </t>
+  </si>
+  <si>
+    <t>As a developer at My Software Co. I want to know that my To-Do list uses a modern version of Java so that I know it will be supported with things like security updates and new features.</t>
+  </si>
+  <si>
+    <t>TS.10</t>
+  </si>
+  <si>
+    <t>TS.11</t>
+  </si>
+  <si>
+    <t>TS.12</t>
+  </si>
+  <si>
+    <t>TS.13</t>
+  </si>
+  <si>
+    <t>Verify that the application is platform independent</t>
+  </si>
+  <si>
+    <t>Verify that the application is able to store data in a lightweight database</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to view, add, edit or delete a task within 5 seconds</t>
+  </si>
+  <si>
+    <t>Verify that the application uses a supported version of the Java Development Kit (minimum JDK 8)</t>
+  </si>
+  <si>
+    <t>TS.10-NFT.01</t>
+  </si>
+  <si>
+    <t>Check database size and type</t>
+  </si>
+  <si>
+    <t>Confirm the application is written in the ‘write once run anywhere’ programming language Java</t>
+  </si>
+  <si>
+    <t>TS.11-NFT.02-04</t>
+  </si>
+  <si>
+    <t>TS.12-NFT.03</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2110,6 +2176,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2375,7 +2447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2545,112 +2617,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2678,6 +2648,48 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2685,59 +2697,190 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3209,10 +3352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB749057-C8E0-489B-AA7A-C0BF81A1D671}">
-  <dimension ref="A1:AC180"/>
+  <dimension ref="A1:AC184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,99 +3376,99 @@
       <c r="A1" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="66"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="101"/>
     </row>
     <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="107"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="75"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="110"/>
     </row>
     <row r="5" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="78"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="113"/>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
@@ -3347,15 +3490,15 @@
       <c r="I6" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="J6" s="101" t="s">
+      <c r="J6" s="119" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="98"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
@@ -3374,16 +3517,16 @@
       <c r="F7" s="54"/>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="102" t="s">
+      <c r="I7" s="65"/>
+      <c r="J7" s="120" t="s">
         <v>171</v>
       </c>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="98"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="66"/>
     </row>
     <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
@@ -3394,38 +3537,38 @@
       <c r="F8" s="54"/>
       <c r="G8" s="55"/>
       <c r="H8" s="55"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="102" t="s">
+      <c r="I8" s="65"/>
+      <c r="J8" s="120" t="s">
         <v>172</v>
       </c>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="98"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="66"/>
     </row>
     <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="118" t="s">
         <v>469</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="98"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="66"/>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="57"/>
@@ -3436,42 +3579,42 @@
       <c r="F10" s="58"/>
       <c r="G10" s="58"/>
       <c r="H10" s="58"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="100"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="68"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="80" t="s">
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="82"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="117"/>
     </row>
     <row r="12" spans="1:29" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -3486,19 +3629,19 @@
       <c r="D12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="125" t="s">
+      <c r="E12" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="125" t="s">
+      <c r="F12" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="125" t="s">
+      <c r="H12" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="125" t="s">
+      <c r="I12" s="89" t="s">
         <v>63</v>
       </c>
       <c r="J12" s="10" t="s">
@@ -3524,31 +3667,31 @@
       </c>
     </row>
     <row r="13" spans="1:29" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="E13" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="118" t="s">
+      <c r="F13" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="82" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="123" t="s">
+      <c r="I13" s="87" t="s">
         <v>115</v>
       </c>
       <c r="J13" s="45" t="s">
@@ -3587,21 +3730,21 @@
       <c r="AC13" s="48"/>
     </row>
     <row r="14" spans="1:29" s="46" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="117" t="s">
+      <c r="A14" s="96"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="118"/>
-      <c r="G14" s="117" t="s">
+      <c r="F14" s="97"/>
+      <c r="G14" s="82" t="s">
         <v>175</v>
       </c>
       <c r="H14" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="124" t="s">
+      <c r="I14" s="88" t="s">
         <v>176</v>
       </c>
       <c r="J14" s="45" t="s">
@@ -3640,21 +3783,21 @@
       <c r="AC14" s="48"/>
     </row>
     <row r="15" spans="1:29" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="117" t="s">
+      <c r="A15" s="96"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="118"/>
-      <c r="G15" s="122" t="s">
+      <c r="F15" s="97"/>
+      <c r="G15" s="86" t="s">
         <v>179</v>
       </c>
       <c r="H15" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="124" t="s">
+      <c r="I15" s="88" t="s">
         <v>181</v>
       </c>
       <c r="J15" s="45" t="s">
@@ -3693,21 +3836,21 @@
       <c r="AC15" s="48"/>
     </row>
     <row r="16" spans="1:29" s="46" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="117" t="s">
+      <c r="A16" s="96"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="118"/>
-      <c r="G16" s="122" t="s">
+      <c r="F16" s="97"/>
+      <c r="G16" s="86" t="s">
         <v>182</v>
       </c>
       <c r="H16" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="126" t="s">
+      <c r="I16" s="90" t="s">
         <v>183</v>
       </c>
       <c r="J16" s="45" t="s">
@@ -3746,21 +3889,21 @@
       <c r="AC16" s="48"/>
     </row>
     <row r="17" spans="1:29" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="116"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="117" t="s">
+      <c r="A17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="118"/>
-      <c r="G17" s="122" t="s">
+      <c r="F17" s="97"/>
+      <c r="G17" s="86" t="s">
         <v>184</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="126" t="s">
+      <c r="I17" s="90" t="s">
         <v>185</v>
       </c>
       <c r="J17" s="45" t="s">
@@ -3799,19 +3942,19 @@
       <c r="AC17" s="48"/>
     </row>
     <row r="18" spans="1:29" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="122" t="s">
+      <c r="A18" s="96"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="86" t="s">
         <v>186</v>
       </c>
       <c r="H18" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I18" s="127" t="s">
+      <c r="I18" s="91" t="s">
         <v>187</v>
       </c>
       <c r="J18" s="45" t="s">
@@ -3850,19 +3993,19 @@
       <c r="AC18" s="48"/>
     </row>
     <row r="19" spans="1:29" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="122" t="s">
+      <c r="A19" s="96"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="86" t="s">
         <v>188</v>
       </c>
       <c r="H19" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="128" t="s">
+      <c r="I19" s="92" t="s">
         <v>189</v>
       </c>
       <c r="J19" s="45" t="s">
@@ -3901,21 +4044,21 @@
       <c r="AC19" s="48"/>
     </row>
     <row r="20" spans="1:29" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="117" t="s">
+      <c r="A20" s="96"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="118"/>
-      <c r="G20" s="122" t="s">
+      <c r="F20" s="97"/>
+      <c r="G20" s="86" t="s">
         <v>190</v>
       </c>
       <c r="H20" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="128" t="s">
+      <c r="I20" s="92" t="s">
         <v>191</v>
       </c>
       <c r="J20" s="45" t="s">
@@ -3954,19 +4097,19 @@
       <c r="AC20" s="48"/>
     </row>
     <row r="21" spans="1:29" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="122" t="s">
+      <c r="A21" s="96"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="86" t="s">
         <v>192</v>
       </c>
       <c r="H21" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="127" t="s">
+      <c r="I21" s="91" t="s">
         <v>193</v>
       </c>
       <c r="J21" s="45" t="s">
@@ -4005,21 +4148,21 @@
       <c r="AC21" s="48"/>
     </row>
     <row r="22" spans="1:29" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="117" t="s">
+      <c r="A22" s="96"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="118"/>
-      <c r="G22" s="122" t="s">
+      <c r="F22" s="97"/>
+      <c r="G22" s="86" t="s">
         <v>194</v>
       </c>
       <c r="H22" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="128" t="s">
+      <c r="I22" s="92" t="s">
         <v>195</v>
       </c>
       <c r="J22" s="45" t="s">
@@ -4058,19 +4201,19 @@
       <c r="AC22" s="48"/>
     </row>
     <row r="23" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="122" t="s">
+      <c r="A23" s="96"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="86" t="s">
         <v>196</v>
       </c>
       <c r="H23" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I23" s="128" t="s">
+      <c r="I23" s="92" t="s">
         <v>197</v>
       </c>
       <c r="J23" s="45" t="s">
@@ -4109,19 +4252,19 @@
       <c r="AC23" s="48"/>
     </row>
     <row r="24" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="122" t="s">
+      <c r="A24" s="96"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="86" t="s">
         <v>198</v>
       </c>
       <c r="H24" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="128" t="s">
+      <c r="I24" s="92" t="s">
         <v>199</v>
       </c>
       <c r="J24" s="45" t="s">
@@ -4160,21 +4303,21 @@
       <c r="AC24" s="48"/>
     </row>
     <row r="25" spans="1:29" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="117" t="s">
+      <c r="A25" s="96"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="118"/>
-      <c r="G25" s="122" t="s">
+      <c r="F25" s="97"/>
+      <c r="G25" s="86" t="s">
         <v>200</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="128" t="s">
+      <c r="I25" s="92" t="s">
         <v>201</v>
       </c>
       <c r="J25" s="45" t="s">
@@ -4213,21 +4356,21 @@
       <c r="AC25" s="48"/>
     </row>
     <row r="26" spans="1:29" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="116"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="117" t="s">
+      <c r="A26" s="96"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="118"/>
-      <c r="G26" s="122" t="s">
+      <c r="F26" s="97"/>
+      <c r="G26" s="86" t="s">
         <v>202</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="128" t="s">
+      <c r="I26" s="92" t="s">
         <v>203</v>
       </c>
       <c r="J26" s="45" t="s">
@@ -4266,21 +4409,21 @@
       <c r="AC26" s="48"/>
     </row>
     <row r="27" spans="1:29" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="117" t="s">
+      <c r="A27" s="96"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="118"/>
-      <c r="G27" s="122" t="s">
+      <c r="F27" s="97"/>
+      <c r="G27" s="86" t="s">
         <v>204</v>
       </c>
       <c r="H27" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="128" t="s">
+      <c r="I27" s="92" t="s">
         <v>205</v>
       </c>
       <c r="J27" s="45" t="s">
@@ -4319,19 +4462,19 @@
       <c r="AC27" s="48"/>
     </row>
     <row r="28" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="116"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="122" t="s">
+      <c r="A28" s="96"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="86" t="s">
         <v>206</v>
       </c>
       <c r="H28" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I28" s="128" t="s">
+      <c r="I28" s="92" t="s">
         <v>207</v>
       </c>
       <c r="J28" s="45" t="s">
@@ -4370,25 +4513,25 @@
       <c r="AC28" s="48"/>
     </row>
     <row r="29" spans="1:29" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="129" t="s">
+      <c r="A29" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="131" t="s">
+      <c r="C29" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="129" t="s">
+      <c r="D29" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="119" t="s">
+      <c r="E29" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="F29" s="131" t="s">
+      <c r="F29" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="119" t="s">
+      <c r="G29" s="83" t="s">
         <v>79</v>
       </c>
       <c r="H29" s="42" t="s">
@@ -4433,15 +4576,15 @@
       <c r="AC29" s="48"/>
     </row>
     <row r="30" spans="1:29" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="129"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="119" t="s">
+      <c r="A30" s="94"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="F30" s="131"/>
-      <c r="G30" s="119" t="s">
+      <c r="F30" s="98"/>
+      <c r="G30" s="83" t="s">
         <v>80</v>
       </c>
       <c r="H30" s="42" t="s">
@@ -4486,15 +4629,15 @@
       <c r="AC30" s="48"/>
     </row>
     <row r="31" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="129"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="119" t="s">
+      <c r="A31" s="94"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="F31" s="131"/>
-      <c r="G31" s="119" t="s">
+      <c r="F31" s="98"/>
+      <c r="G31" s="83" t="s">
         <v>208</v>
       </c>
       <c r="H31" s="42" t="s">
@@ -4539,15 +4682,15 @@
       <c r="AC31" s="48"/>
     </row>
     <row r="32" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="129"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="119" t="s">
+      <c r="A32" s="94"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="F32" s="131"/>
-      <c r="G32" s="119" t="s">
+      <c r="F32" s="98"/>
+      <c r="G32" s="83" t="s">
         <v>212</v>
       </c>
       <c r="H32" s="42" t="s">
@@ -4592,15 +4735,15 @@
       <c r="AC32" s="48"/>
     </row>
     <row r="33" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="129"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="119" t="s">
+      <c r="A33" s="94"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="F33" s="131"/>
-      <c r="G33" s="119" t="s">
+      <c r="F33" s="98"/>
+      <c r="G33" s="83" t="s">
         <v>214</v>
       </c>
       <c r="H33" s="42" t="s">
@@ -4645,15 +4788,15 @@
       <c r="AC33" s="48"/>
     </row>
     <row r="34" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="129"/>
-      <c r="B34" s="131"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="119" t="s">
+      <c r="A34" s="94"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="F34" s="131"/>
-      <c r="G34" s="119" t="s">
+      <c r="F34" s="98"/>
+      <c r="G34" s="83" t="s">
         <v>216</v>
       </c>
       <c r="H34" s="42" t="s">
@@ -4698,15 +4841,15 @@
       <c r="AC34" s="48"/>
     </row>
     <row r="35" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="129"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="119" t="s">
+      <c r="A35" s="94"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="F35" s="131"/>
-      <c r="G35" s="119" t="s">
+      <c r="F35" s="98"/>
+      <c r="G35" s="83" t="s">
         <v>218</v>
       </c>
       <c r="H35" s="42" t="s">
@@ -4751,15 +4894,15 @@
       <c r="AC35" s="48"/>
     </row>
     <row r="36" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="129"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="119" t="s">
+      <c r="A36" s="94"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="F36" s="131"/>
-      <c r="G36" s="119" t="s">
+      <c r="F36" s="98"/>
+      <c r="G36" s="83" t="s">
         <v>220</v>
       </c>
       <c r="H36" s="42" t="s">
@@ -4804,15 +4947,15 @@
       <c r="AC36" s="48"/>
     </row>
     <row r="37" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="129"/>
-      <c r="B37" s="131"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="119" t="s">
+      <c r="A37" s="94"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="F37" s="131"/>
-      <c r="G37" s="119" t="s">
+      <c r="F37" s="98"/>
+      <c r="G37" s="83" t="s">
         <v>222</v>
       </c>
       <c r="H37" s="42" t="s">
@@ -4857,15 +5000,15 @@
       <c r="AC37" s="48"/>
     </row>
     <row r="38" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="129"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="119" t="s">
+      <c r="A38" s="94"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="F38" s="131"/>
-      <c r="G38" s="119" t="s">
+      <c r="F38" s="98"/>
+      <c r="G38" s="83" t="s">
         <v>223</v>
       </c>
       <c r="H38" s="42" t="s">
@@ -4910,15 +5053,15 @@
       <c r="AC38" s="48"/>
     </row>
     <row r="39" spans="1:29" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="129"/>
-      <c r="B39" s="131"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="119" t="s">
+      <c r="A39" s="94"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="F39" s="131"/>
-      <c r="G39" s="119" t="s">
+      <c r="F39" s="98"/>
+      <c r="G39" s="83" t="s">
         <v>476</v>
       </c>
       <c r="H39" s="42" t="s">
@@ -4963,15 +5106,15 @@
       <c r="AC39" s="48"/>
     </row>
     <row r="40" spans="1:29" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="129"/>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="119" t="s">
+      <c r="A40" s="94"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="F40" s="131"/>
-      <c r="G40" s="119" t="s">
+      <c r="F40" s="98"/>
+      <c r="G40" s="83" t="s">
         <v>478</v>
       </c>
       <c r="H40" s="42" t="s">
@@ -5016,19 +5159,19 @@
       <c r="AC40" s="48"/>
     </row>
     <row r="41" spans="1:29" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="129"/>
-      <c r="B41" s="131"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="119" t="s">
+      <c r="A41" s="94"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="83" t="s">
         <v>225</v>
       </c>
       <c r="H41" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="I41" s="121" t="s">
+      <c r="I41" s="85" t="s">
         <v>226</v>
       </c>
       <c r="J41" s="42" t="s">
@@ -5067,21 +5210,21 @@
       <c r="AC41" s="48"/>
     </row>
     <row r="42" spans="1:29" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="129"/>
-      <c r="B42" s="131"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="119" t="s">
+      <c r="A42" s="94"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="131"/>
-      <c r="G42" s="119" t="s">
+      <c r="F42" s="98"/>
+      <c r="G42" s="83" t="s">
         <v>227</v>
       </c>
       <c r="H42" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="I42" s="121" t="s">
+      <c r="I42" s="85" t="s">
         <v>228</v>
       </c>
       <c r="J42" s="42" t="s">
@@ -5120,15 +5263,15 @@
       <c r="AC42" s="48"/>
     </row>
     <row r="43" spans="1:29" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="129"/>
-      <c r="B43" s="131"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="119" t="s">
+      <c r="A43" s="94"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="131"/>
-      <c r="G43" s="119" t="s">
+      <c r="F43" s="98"/>
+      <c r="G43" s="83" t="s">
         <v>229</v>
       </c>
       <c r="H43" s="42" t="s">
@@ -5173,13 +5316,13 @@
       <c r="AC43" s="48"/>
     </row>
     <row r="44" spans="1:29" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="129"/>
-      <c r="B44" s="131"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="119" t="s">
+      <c r="A44" s="94"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="83" t="s">
         <v>231</v>
       </c>
       <c r="H44" s="42" t="s">
@@ -5224,13 +5367,13 @@
       <c r="AC44" s="48"/>
     </row>
     <row r="45" spans="1:29" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="129"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="119" t="s">
+      <c r="A45" s="94"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="83" t="s">
         <v>233</v>
       </c>
       <c r="H45" s="42" t="s">
@@ -5275,13 +5418,13 @@
       <c r="AC45" s="48"/>
     </row>
     <row r="46" spans="1:29" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="129"/>
-      <c r="B46" s="131"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="131"/>
-      <c r="G46" s="119" t="s">
+      <c r="A46" s="94"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="83" t="s">
         <v>235</v>
       </c>
       <c r="H46" s="42" t="s">
@@ -5326,13 +5469,13 @@
       <c r="AC46" s="48"/>
     </row>
     <row r="47" spans="1:29" s="46" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="129"/>
-      <c r="B47" s="131"/>
-      <c r="C47" s="131"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="119" t="s">
+      <c r="A47" s="94"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="83" t="s">
         <v>237</v>
       </c>
       <c r="H47" s="42" t="s">
@@ -5377,13 +5520,13 @@
       <c r="AC47" s="48"/>
     </row>
     <row r="48" spans="1:29" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="129"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="131"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="119" t="s">
+      <c r="A48" s="94"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="83" t="s">
         <v>239</v>
       </c>
       <c r="H48" s="42" t="s">
@@ -5428,21 +5571,21 @@
       <c r="AC48" s="48"/>
     </row>
     <row r="49" spans="1:29" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="129"/>
-      <c r="B49" s="131"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="119" t="s">
+      <c r="A49" s="94"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="F49" s="131"/>
-      <c r="G49" s="119" t="s">
+      <c r="F49" s="98"/>
+      <c r="G49" s="83" t="s">
         <v>241</v>
       </c>
       <c r="H49" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="I49" s="121" t="s">
+      <c r="I49" s="85" t="s">
         <v>242</v>
       </c>
       <c r="J49" s="42" t="s">
@@ -5481,15 +5624,15 @@
       <c r="AC49" s="48"/>
     </row>
     <row r="50" spans="1:29" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="129"/>
-      <c r="B50" s="131"/>
-      <c r="C50" s="131"/>
-      <c r="D50" s="129"/>
-      <c r="E50" s="119" t="s">
+      <c r="A50" s="94"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="F50" s="131"/>
-      <c r="G50" s="119" t="s">
+      <c r="F50" s="98"/>
+      <c r="G50" s="83" t="s">
         <v>243</v>
       </c>
       <c r="H50" s="42" t="s">
@@ -5534,15 +5677,15 @@
       <c r="AC50" s="48"/>
     </row>
     <row r="51" spans="1:29" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="129"/>
-      <c r="B51" s="131"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="119" t="s">
+      <c r="A51" s="94"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="F51" s="131"/>
-      <c r="G51" s="119" t="s">
+      <c r="F51" s="98"/>
+      <c r="G51" s="83" t="s">
         <v>245</v>
       </c>
       <c r="H51" s="42" t="s">
@@ -5587,15 +5730,15 @@
       <c r="AC51" s="48"/>
     </row>
     <row r="52" spans="1:29" s="46" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="129"/>
-      <c r="B52" s="131"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="119" t="s">
+      <c r="A52" s="94"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="F52" s="131"/>
-      <c r="G52" s="119" t="s">
+      <c r="F52" s="98"/>
+      <c r="G52" s="83" t="s">
         <v>247</v>
       </c>
       <c r="H52" s="42" t="s">
@@ -5640,15 +5783,15 @@
       <c r="AC52" s="48"/>
     </row>
     <row r="53" spans="1:29" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="129"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="119" t="s">
+      <c r="A53" s="94"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="F53" s="131"/>
-      <c r="G53" s="119" t="s">
+      <c r="F53" s="98"/>
+      <c r="G53" s="83" t="s">
         <v>249</v>
       </c>
       <c r="H53" s="42" t="s">
@@ -5693,15 +5836,15 @@
       <c r="AC53" s="48"/>
     </row>
     <row r="54" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="129"/>
-      <c r="B54" s="131"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="119" t="s">
+      <c r="A54" s="94"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="F54" s="131"/>
-      <c r="G54" s="119" t="s">
+      <c r="F54" s="98"/>
+      <c r="G54" s="83" t="s">
         <v>251</v>
       </c>
       <c r="H54" s="42" t="s">
@@ -5746,15 +5889,15 @@
       <c r="AC54" s="48"/>
     </row>
     <row r="55" spans="1:29" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="129"/>
-      <c r="B55" s="131"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="119" t="s">
+      <c r="A55" s="94"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="F55" s="131"/>
-      <c r="G55" s="119" t="s">
+      <c r="F55" s="98"/>
+      <c r="G55" s="83" t="s">
         <v>253</v>
       </c>
       <c r="H55" s="42" t="s">
@@ -5799,15 +5942,15 @@
       <c r="AC55" s="48"/>
     </row>
     <row r="56" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="129"/>
-      <c r="B56" s="131"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="129"/>
-      <c r="E56" s="119" t="s">
+      <c r="A56" s="94"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="131"/>
-      <c r="G56" s="119" t="s">
+      <c r="F56" s="98"/>
+      <c r="G56" s="83" t="s">
         <v>255</v>
       </c>
       <c r="H56" s="42" t="s">
@@ -5852,15 +5995,15 @@
       <c r="AC56" s="48"/>
     </row>
     <row r="57" spans="1:29" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="129"/>
-      <c r="B57" s="131"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="119" t="s">
+      <c r="A57" s="94"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="F57" s="131"/>
-      <c r="G57" s="119" t="s">
+      <c r="F57" s="98"/>
+      <c r="G57" s="83" t="s">
         <v>257</v>
       </c>
       <c r="H57" s="42" t="s">
@@ -5905,15 +6048,15 @@
       <c r="AC57" s="48"/>
     </row>
     <row r="58" spans="1:29" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="129"/>
-      <c r="B58" s="131"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="129"/>
-      <c r="E58" s="119" t="s">
+      <c r="A58" s="94"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="F58" s="131"/>
-      <c r="G58" s="119" t="s">
+      <c r="F58" s="98"/>
+      <c r="G58" s="83" t="s">
         <v>259</v>
       </c>
       <c r="H58" s="42" t="s">
@@ -5958,15 +6101,15 @@
       <c r="AC58" s="48"/>
     </row>
     <row r="59" spans="1:29" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59" s="129"/>
-      <c r="B59" s="131"/>
-      <c r="C59" s="131"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="119" t="s">
+      <c r="A59" s="94"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="F59" s="131"/>
-      <c r="G59" s="119" t="s">
+      <c r="F59" s="98"/>
+      <c r="G59" s="83" t="s">
         <v>261</v>
       </c>
       <c r="H59" s="42" t="s">
@@ -6011,15 +6154,15 @@
       <c r="AC59" s="48"/>
     </row>
     <row r="60" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="129"/>
-      <c r="B60" s="131"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="129"/>
-      <c r="E60" s="119" t="s">
+      <c r="A60" s="94"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="F60" s="131"/>
-      <c r="G60" s="119" t="s">
+      <c r="F60" s="98"/>
+      <c r="G60" s="83" t="s">
         <v>263</v>
       </c>
       <c r="H60" s="42" t="s">
@@ -6064,15 +6207,15 @@
       <c r="AC60" s="48"/>
     </row>
     <row r="61" spans="1:29" s="46" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A61" s="129"/>
-      <c r="B61" s="131"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="119" t="s">
+      <c r="A61" s="94"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="F61" s="131"/>
-      <c r="G61" s="119" t="s">
+      <c r="F61" s="98"/>
+      <c r="G61" s="83" t="s">
         <v>265</v>
       </c>
       <c r="H61" s="42" t="s">
@@ -6117,15 +6260,15 @@
       <c r="AC61" s="48"/>
     </row>
     <row r="62" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="129"/>
-      <c r="B62" s="131"/>
-      <c r="C62" s="131"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="119" t="s">
+      <c r="A62" s="94"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="F62" s="131"/>
-      <c r="G62" s="119" t="s">
+      <c r="F62" s="98"/>
+      <c r="G62" s="83" t="s">
         <v>267</v>
       </c>
       <c r="H62" s="42" t="s">
@@ -6170,15 +6313,15 @@
       <c r="AC62" s="48"/>
     </row>
     <row r="63" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="129"/>
-      <c r="B63" s="131"/>
-      <c r="C63" s="131"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="119" t="s">
+      <c r="A63" s="94"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="F63" s="131"/>
-      <c r="G63" s="119" t="s">
+      <c r="F63" s="98"/>
+      <c r="G63" s="83" t="s">
         <v>269</v>
       </c>
       <c r="H63" s="42" t="s">
@@ -6223,15 +6366,15 @@
       <c r="AC63" s="48"/>
     </row>
     <row r="64" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="129"/>
-      <c r="B64" s="131"/>
-      <c r="C64" s="131"/>
-      <c r="D64" s="129"/>
-      <c r="E64" s="119" t="s">
+      <c r="A64" s="94"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="F64" s="131"/>
-      <c r="G64" s="119" t="s">
+      <c r="F64" s="98"/>
+      <c r="G64" s="83" t="s">
         <v>271</v>
       </c>
       <c r="H64" s="42" t="s">
@@ -6276,15 +6419,15 @@
       <c r="AC64" s="48"/>
     </row>
     <row r="65" spans="1:29" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="129"/>
-      <c r="B65" s="131"/>
-      <c r="C65" s="131"/>
-      <c r="D65" s="129"/>
-      <c r="E65" s="119" t="s">
+      <c r="A65" s="94"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="94"/>
+      <c r="E65" s="83" t="s">
         <v>275</v>
       </c>
-      <c r="F65" s="131"/>
-      <c r="G65" s="119" t="s">
+      <c r="F65" s="98"/>
+      <c r="G65" s="83" t="s">
         <v>273</v>
       </c>
       <c r="H65" s="42" t="s">
@@ -6329,15 +6472,15 @@
       <c r="AC65" s="48"/>
     </row>
     <row r="66" spans="1:29" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="129"/>
-      <c r="B66" s="131"/>
-      <c r="C66" s="131"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="119" t="s">
+      <c r="A66" s="94"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="F66" s="131"/>
-      <c r="G66" s="119" t="s">
+      <c r="F66" s="98"/>
+      <c r="G66" s="83" t="s">
         <v>276</v>
       </c>
       <c r="H66" s="42" t="s">
@@ -6382,25 +6525,25 @@
       <c r="AC66" s="48"/>
     </row>
     <row r="67" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="130" t="s">
+      <c r="A67" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="132" t="s">
+      <c r="B67" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="132" t="s">
+      <c r="C67" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="130" t="s">
+      <c r="D67" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="120" t="s">
+      <c r="E67" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="F67" s="132" t="s">
+      <c r="F67" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="G67" s="120" t="s">
+      <c r="G67" s="84" t="s">
         <v>118</v>
       </c>
       <c r="H67" s="29" t="s">
@@ -6432,15 +6575,15 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="130"/>
-      <c r="B68" s="132"/>
-      <c r="C68" s="132"/>
-      <c r="D68" s="130"/>
-      <c r="E68" s="120" t="s">
+      <c r="A68" s="95"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="F68" s="132"/>
-      <c r="G68" s="120" t="s">
+      <c r="F68" s="99"/>
+      <c r="G68" s="84" t="s">
         <v>119</v>
       </c>
       <c r="H68" s="29" t="s">
@@ -6472,15 +6615,15 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="130"/>
-      <c r="B69" s="132"/>
-      <c r="C69" s="132"/>
-      <c r="D69" s="130"/>
-      <c r="E69" s="120" t="s">
+      <c r="A69" s="95"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="F69" s="132"/>
-      <c r="G69" s="120" t="s">
+      <c r="F69" s="99"/>
+      <c r="G69" s="84" t="s">
         <v>120</v>
       </c>
       <c r="H69" s="29" t="s">
@@ -6512,15 +6655,15 @@
       </c>
     </row>
     <row r="70" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="130"/>
-      <c r="B70" s="132"/>
-      <c r="C70" s="132"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="120" t="s">
+      <c r="A70" s="95"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="95"/>
+      <c r="E70" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="F70" s="132"/>
-      <c r="G70" s="120" t="s">
+      <c r="F70" s="99"/>
+      <c r="G70" s="84" t="s">
         <v>121</v>
       </c>
       <c r="H70" s="29" t="s">
@@ -6552,15 +6695,15 @@
       </c>
     </row>
     <row r="71" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="130"/>
-      <c r="B71" s="132"/>
-      <c r="C71" s="132"/>
-      <c r="D71" s="130"/>
-      <c r="E71" s="120" t="s">
+      <c r="A71" s="95"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="F71" s="132"/>
-      <c r="G71" s="120" t="s">
+      <c r="F71" s="99"/>
+      <c r="G71" s="84" t="s">
         <v>128</v>
       </c>
       <c r="H71" s="29" t="s">
@@ -6592,15 +6735,15 @@
       </c>
     </row>
     <row r="72" spans="1:29" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="130"/>
-      <c r="B72" s="132"/>
-      <c r="C72" s="132"/>
-      <c r="D72" s="130"/>
-      <c r="E72" s="120" t="s">
+      <c r="A72" s="95"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="F72" s="132"/>
-      <c r="G72" s="120" t="s">
+      <c r="F72" s="99"/>
+      <c r="G72" s="84" t="s">
         <v>129</v>
       </c>
       <c r="H72" s="29" t="s">
@@ -6632,15 +6775,15 @@
       </c>
     </row>
     <row r="73" spans="1:29" ht="90" x14ac:dyDescent="0.25">
-      <c r="A73" s="130"/>
-      <c r="B73" s="132"/>
-      <c r="C73" s="132"/>
-      <c r="D73" s="130"/>
-      <c r="E73" s="120" t="s">
+      <c r="A73" s="95"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="F73" s="132"/>
-      <c r="G73" s="120" t="s">
+      <c r="F73" s="99"/>
+      <c r="G73" s="84" t="s">
         <v>282</v>
       </c>
       <c r="H73" s="29" t="s">
@@ -6672,15 +6815,15 @@
       </c>
     </row>
     <row r="74" spans="1:29" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="130"/>
-      <c r="B74" s="132"/>
-      <c r="C74" s="132"/>
-      <c r="D74" s="130"/>
-      <c r="E74" s="120" t="s">
+      <c r="A74" s="95"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="F74" s="132"/>
-      <c r="G74" s="122" t="s">
+      <c r="F74" s="99"/>
+      <c r="G74" s="86" t="s">
         <v>286</v>
       </c>
       <c r="H74" s="29" t="s">
@@ -6712,15 +6855,15 @@
       </c>
     </row>
     <row r="75" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="130"/>
-      <c r="B75" s="132"/>
-      <c r="C75" s="132"/>
-      <c r="D75" s="130"/>
-      <c r="E75" s="120" t="s">
+      <c r="A75" s="95"/>
+      <c r="B75" s="99"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="F75" s="132"/>
-      <c r="G75" s="120" t="s">
+      <c r="F75" s="99"/>
+      <c r="G75" s="84" t="s">
         <v>288</v>
       </c>
       <c r="H75" s="29" t="s">
@@ -6752,15 +6895,15 @@
       </c>
     </row>
     <row r="76" spans="1:29" ht="90" x14ac:dyDescent="0.25">
-      <c r="A76" s="130"/>
-      <c r="B76" s="132"/>
-      <c r="C76" s="132"/>
-      <c r="D76" s="130"/>
-      <c r="E76" s="120" t="s">
+      <c r="A76" s="95"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="95"/>
+      <c r="E76" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="F76" s="132"/>
-      <c r="G76" s="120" t="s">
+      <c r="F76" s="99"/>
+      <c r="G76" s="84" t="s">
         <v>480</v>
       </c>
       <c r="H76" s="29" t="s">
@@ -6792,15 +6935,15 @@
       </c>
     </row>
     <row r="77" spans="1:29" ht="90" x14ac:dyDescent="0.25">
-      <c r="A77" s="130"/>
-      <c r="B77" s="132"/>
-      <c r="C77" s="132"/>
-      <c r="D77" s="130"/>
-      <c r="E77" s="120" t="s">
+      <c r="A77" s="95"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="95"/>
+      <c r="E77" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="F77" s="132"/>
-      <c r="G77" s="120" t="s">
+      <c r="F77" s="99"/>
+      <c r="G77" s="84" t="s">
         <v>482</v>
       </c>
       <c r="H77" s="29" t="s">
@@ -6832,15 +6975,15 @@
       </c>
     </row>
     <row r="78" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="130"/>
-      <c r="B78" s="132"/>
-      <c r="C78" s="132"/>
-      <c r="D78" s="130"/>
-      <c r="E78" s="120" t="s">
+      <c r="A78" s="95"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="F78" s="132"/>
-      <c r="G78" s="122" t="s">
+      <c r="F78" s="99"/>
+      <c r="G78" s="86" t="s">
         <v>291</v>
       </c>
       <c r="H78" s="29" t="s">
@@ -6872,13 +7015,13 @@
       </c>
     </row>
     <row r="79" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="130"/>
-      <c r="B79" s="132"/>
-      <c r="C79" s="132"/>
-      <c r="D79" s="130"/>
-      <c r="E79" s="120"/>
-      <c r="F79" s="132"/>
-      <c r="G79" s="120" t="s">
+      <c r="A79" s="95"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="84" t="s">
         <v>293</v>
       </c>
       <c r="H79" s="29" t="s">
@@ -6910,13 +7053,13 @@
       </c>
     </row>
     <row r="80" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="130"/>
-      <c r="B80" s="132"/>
-      <c r="C80" s="132"/>
-      <c r="D80" s="130"/>
-      <c r="E80" s="120"/>
-      <c r="F80" s="132"/>
-      <c r="G80" s="122" t="s">
+      <c r="A80" s="95"/>
+      <c r="B80" s="99"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="95"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="86" t="s">
         <v>295</v>
       </c>
       <c r="H80" s="29" t="s">
@@ -6948,13 +7091,13 @@
       </c>
     </row>
     <row r="81" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="130"/>
-      <c r="B81" s="132"/>
-      <c r="C81" s="132"/>
-      <c r="D81" s="130"/>
-      <c r="E81" s="120"/>
-      <c r="F81" s="132"/>
-      <c r="G81" s="120" t="s">
+      <c r="A81" s="95"/>
+      <c r="B81" s="99"/>
+      <c r="C81" s="99"/>
+      <c r="D81" s="95"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="99"/>
+      <c r="G81" s="84" t="s">
         <v>299</v>
       </c>
       <c r="H81" s="29" t="s">
@@ -6986,13 +7129,13 @@
       </c>
     </row>
     <row r="82" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="130"/>
-      <c r="B82" s="132"/>
-      <c r="C82" s="132"/>
-      <c r="D82" s="130"/>
-      <c r="E82" s="120"/>
-      <c r="F82" s="132"/>
-      <c r="G82" s="122" t="s">
+      <c r="A82" s="95"/>
+      <c r="B82" s="99"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="99"/>
+      <c r="G82" s="86" t="s">
         <v>301</v>
       </c>
       <c r="H82" s="29" t="s">
@@ -7024,13 +7167,13 @@
       </c>
     </row>
     <row r="83" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="130"/>
-      <c r="B83" s="132"/>
-      <c r="C83" s="132"/>
-      <c r="D83" s="130"/>
-      <c r="E83" s="120"/>
-      <c r="F83" s="132"/>
-      <c r="G83" s="122" t="s">
+      <c r="A83" s="95"/>
+      <c r="B83" s="99"/>
+      <c r="C83" s="99"/>
+      <c r="D83" s="95"/>
+      <c r="E83" s="84"/>
+      <c r="F83" s="99"/>
+      <c r="G83" s="86" t="s">
         <v>303</v>
       </c>
       <c r="H83" s="29" t="s">
@@ -7062,15 +7205,15 @@
       </c>
     </row>
     <row r="84" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="130"/>
-      <c r="B84" s="132"/>
-      <c r="C84" s="132"/>
-      <c r="D84" s="130"/>
-      <c r="E84" s="120" t="s">
+      <c r="A84" s="95"/>
+      <c r="B84" s="99"/>
+      <c r="C84" s="99"/>
+      <c r="D84" s="95"/>
+      <c r="E84" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="F84" s="132"/>
-      <c r="G84" s="120" t="s">
+      <c r="F84" s="99"/>
+      <c r="G84" s="84" t="s">
         <v>305</v>
       </c>
       <c r="H84" s="29" t="s">
@@ -7102,15 +7245,15 @@
       </c>
     </row>
     <row r="85" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="130"/>
-      <c r="B85" s="132"/>
-      <c r="C85" s="132"/>
-      <c r="D85" s="130"/>
-      <c r="E85" s="120" t="s">
+      <c r="A85" s="95"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="95"/>
+      <c r="E85" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="F85" s="132"/>
-      <c r="G85" s="120" t="s">
+      <c r="F85" s="99"/>
+      <c r="G85" s="84" t="s">
         <v>307</v>
       </c>
       <c r="H85" s="29" t="s">
@@ -7142,15 +7285,15 @@
       </c>
     </row>
     <row r="86" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="130"/>
-      <c r="B86" s="132"/>
-      <c r="C86" s="132"/>
-      <c r="D86" s="130"/>
-      <c r="E86" s="120" t="s">
+      <c r="A86" s="95"/>
+      <c r="B86" s="99"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="95"/>
+      <c r="E86" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="F86" s="132"/>
-      <c r="G86" s="122" t="s">
+      <c r="F86" s="99"/>
+      <c r="G86" s="86" t="s">
         <v>309</v>
       </c>
       <c r="H86" s="29" t="s">
@@ -7182,15 +7325,15 @@
       </c>
     </row>
     <row r="87" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="130"/>
-      <c r="B87" s="132"/>
-      <c r="C87" s="132"/>
-      <c r="D87" s="130"/>
-      <c r="E87" s="120" t="s">
+      <c r="A87" s="95"/>
+      <c r="B87" s="99"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="F87" s="132"/>
-      <c r="G87" s="122" t="s">
+      <c r="F87" s="99"/>
+      <c r="G87" s="86" t="s">
         <v>311</v>
       </c>
       <c r="H87" s="29" t="s">
@@ -7222,21 +7365,21 @@
       </c>
     </row>
     <row r="88" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="130"/>
-      <c r="B88" s="132"/>
-      <c r="C88" s="132"/>
-      <c r="D88" s="130"/>
-      <c r="E88" s="120" t="s">
+      <c r="A88" s="95"/>
+      <c r="B88" s="99"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="95"/>
+      <c r="E88" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="F88" s="132"/>
-      <c r="G88" s="122" t="s">
+      <c r="F88" s="99"/>
+      <c r="G88" s="86" t="s">
         <v>313</v>
       </c>
       <c r="H88" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I88" s="128" t="s">
+      <c r="I88" s="92" t="s">
         <v>314</v>
       </c>
       <c r="J88" s="29" t="s">
@@ -7262,15 +7405,15 @@
       </c>
     </row>
     <row r="89" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="130"/>
-      <c r="B89" s="132"/>
-      <c r="C89" s="132"/>
-      <c r="D89" s="130"/>
-      <c r="E89" s="120" t="s">
+      <c r="A89" s="95"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="95"/>
+      <c r="E89" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="F89" s="132"/>
-      <c r="G89" s="122" t="s">
+      <c r="F89" s="99"/>
+      <c r="G89" s="86" t="s">
         <v>315</v>
       </c>
       <c r="H89" s="29" t="s">
@@ -7302,15 +7445,15 @@
       </c>
     </row>
     <row r="90" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="130"/>
-      <c r="B90" s="132"/>
-      <c r="C90" s="132"/>
-      <c r="D90" s="130"/>
-      <c r="E90" s="120" t="s">
+      <c r="A90" s="95"/>
+      <c r="B90" s="99"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="95"/>
+      <c r="E90" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="F90" s="132"/>
-      <c r="G90" s="122" t="s">
+      <c r="F90" s="99"/>
+      <c r="G90" s="86" t="s">
         <v>317</v>
       </c>
       <c r="H90" s="29" t="s">
@@ -7342,15 +7485,15 @@
       </c>
     </row>
     <row r="91" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="130"/>
-      <c r="B91" s="132"/>
-      <c r="C91" s="132"/>
-      <c r="D91" s="130"/>
-      <c r="E91" s="120" t="s">
+      <c r="A91" s="95"/>
+      <c r="B91" s="99"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="95"/>
+      <c r="E91" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="F91" s="132"/>
-      <c r="G91" s="120" t="s">
+      <c r="F91" s="99"/>
+      <c r="G91" s="84" t="s">
         <v>319</v>
       </c>
       <c r="H91" s="29" t="s">
@@ -7382,15 +7525,15 @@
       </c>
     </row>
     <row r="92" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="130"/>
-      <c r="B92" s="132"/>
-      <c r="C92" s="132"/>
-      <c r="D92" s="130"/>
-      <c r="E92" s="120" t="s">
+      <c r="A92" s="95"/>
+      <c r="B92" s="99"/>
+      <c r="C92" s="99"/>
+      <c r="D92" s="95"/>
+      <c r="E92" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="F92" s="132"/>
-      <c r="G92" s="120" t="s">
+      <c r="F92" s="99"/>
+      <c r="G92" s="84" t="s">
         <v>321</v>
       </c>
       <c r="H92" s="29" t="s">
@@ -7422,15 +7565,15 @@
       </c>
     </row>
     <row r="93" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93" s="130"/>
-      <c r="B93" s="132"/>
-      <c r="C93" s="132"/>
-      <c r="D93" s="130"/>
-      <c r="E93" s="120" t="s">
+      <c r="A93" s="95"/>
+      <c r="B93" s="99"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="95"/>
+      <c r="E93" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="F93" s="132"/>
-      <c r="G93" s="122" t="s">
+      <c r="F93" s="99"/>
+      <c r="G93" s="86" t="s">
         <v>325</v>
       </c>
       <c r="H93" s="29" t="s">
@@ -7462,15 +7605,15 @@
       </c>
     </row>
     <row r="94" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="130"/>
-      <c r="B94" s="132"/>
-      <c r="C94" s="132"/>
-      <c r="D94" s="130"/>
-      <c r="E94" s="120" t="s">
+      <c r="A94" s="95"/>
+      <c r="B94" s="99"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="95"/>
+      <c r="E94" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="F94" s="132"/>
-      <c r="G94" s="120" t="s">
+      <c r="F94" s="99"/>
+      <c r="G94" s="84" t="s">
         <v>327</v>
       </c>
       <c r="H94" s="29" t="s">
@@ -7502,15 +7645,15 @@
       </c>
     </row>
     <row r="95" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A95" s="130"/>
-      <c r="B95" s="132"/>
-      <c r="C95" s="132"/>
-      <c r="D95" s="130"/>
-      <c r="E95" s="120" t="s">
+      <c r="A95" s="95"/>
+      <c r="B95" s="99"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="F95" s="132"/>
-      <c r="G95" s="122" t="s">
+      <c r="F95" s="99"/>
+      <c r="G95" s="86" t="s">
         <v>329</v>
       </c>
       <c r="H95" s="29" t="s">
@@ -7542,15 +7685,15 @@
       </c>
     </row>
     <row r="96" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="130"/>
-      <c r="B96" s="132"/>
-      <c r="C96" s="132"/>
-      <c r="D96" s="130"/>
-      <c r="E96" s="120" t="s">
+      <c r="A96" s="95"/>
+      <c r="B96" s="99"/>
+      <c r="C96" s="99"/>
+      <c r="D96" s="95"/>
+      <c r="E96" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="F96" s="132"/>
-      <c r="G96" s="122" t="s">
+      <c r="F96" s="99"/>
+      <c r="G96" s="86" t="s">
         <v>330</v>
       </c>
       <c r="H96" s="29" t="s">
@@ -7582,15 +7725,15 @@
       </c>
     </row>
     <row r="97" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" s="130"/>
-      <c r="B97" s="132"/>
-      <c r="C97" s="132"/>
-      <c r="D97" s="130"/>
-      <c r="E97" s="120" t="s">
+      <c r="A97" s="95"/>
+      <c r="B97" s="99"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="95"/>
+      <c r="E97" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="F97" s="132"/>
-      <c r="G97" s="122" t="s">
+      <c r="F97" s="99"/>
+      <c r="G97" s="86" t="s">
         <v>331</v>
       </c>
       <c r="H97" s="29" t="s">
@@ -7622,15 +7765,15 @@
       </c>
     </row>
     <row r="98" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="130"/>
-      <c r="B98" s="132"/>
-      <c r="C98" s="132"/>
-      <c r="D98" s="130"/>
-      <c r="E98" s="120" t="s">
+      <c r="A98" s="95"/>
+      <c r="B98" s="99"/>
+      <c r="C98" s="99"/>
+      <c r="D98" s="95"/>
+      <c r="E98" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="F98" s="132"/>
-      <c r="G98" s="122" t="s">
+      <c r="F98" s="99"/>
+      <c r="G98" s="86" t="s">
         <v>332</v>
       </c>
       <c r="H98" s="29" t="s">
@@ -7662,15 +7805,15 @@
       </c>
     </row>
     <row r="99" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="130"/>
-      <c r="B99" s="132"/>
-      <c r="C99" s="132"/>
-      <c r="D99" s="130"/>
-      <c r="E99" s="120" t="s">
+      <c r="A99" s="95"/>
+      <c r="B99" s="99"/>
+      <c r="C99" s="99"/>
+      <c r="D99" s="95"/>
+      <c r="E99" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="F99" s="132"/>
-      <c r="G99" s="122" t="s">
+      <c r="F99" s="99"/>
+      <c r="G99" s="86" t="s">
         <v>333</v>
       </c>
       <c r="H99" s="29" t="s">
@@ -7702,25 +7845,25 @@
       </c>
     </row>
     <row r="100" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="129" t="s">
+      <c r="A100" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="131" t="s">
+      <c r="B100" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="131" t="s">
+      <c r="C100" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D100" s="129" t="s">
+      <c r="D100" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="E100" s="119" t="s">
+      <c r="E100" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="F100" s="131" t="s">
+      <c r="F100" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="G100" s="119" t="s">
+      <c r="G100" s="83" t="s">
         <v>134</v>
       </c>
       <c r="H100" s="42" t="s">
@@ -7752,15 +7895,15 @@
       </c>
     </row>
     <row r="101" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="129"/>
-      <c r="B101" s="131"/>
-      <c r="C101" s="131"/>
-      <c r="D101" s="129"/>
-      <c r="E101" s="119" t="s">
+      <c r="A101" s="94"/>
+      <c r="B101" s="98"/>
+      <c r="C101" s="98"/>
+      <c r="D101" s="94"/>
+      <c r="E101" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="F101" s="131"/>
-      <c r="G101" s="119" t="s">
+      <c r="F101" s="98"/>
+      <c r="G101" s="83" t="s">
         <v>135</v>
       </c>
       <c r="H101" s="42" t="s">
@@ -7792,15 +7935,15 @@
       </c>
     </row>
     <row r="102" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A102" s="129"/>
-      <c r="B102" s="131"/>
-      <c r="C102" s="131"/>
-      <c r="D102" s="129"/>
-      <c r="E102" s="119" t="s">
+      <c r="A102" s="94"/>
+      <c r="B102" s="98"/>
+      <c r="C102" s="98"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="83" t="s">
         <v>343</v>
       </c>
-      <c r="F102" s="131"/>
-      <c r="G102" s="119" t="s">
+      <c r="F102" s="98"/>
+      <c r="G102" s="83" t="s">
         <v>341</v>
       </c>
       <c r="H102" s="42" t="s">
@@ -7832,15 +7975,15 @@
       </c>
     </row>
     <row r="103" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A103" s="129"/>
-      <c r="B103" s="131"/>
-      <c r="C103" s="131"/>
-      <c r="D103" s="129"/>
-      <c r="E103" s="119" t="s">
+      <c r="A103" s="94"/>
+      <c r="B103" s="98"/>
+      <c r="C103" s="98"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="83" t="s">
         <v>346</v>
       </c>
-      <c r="F103" s="131"/>
-      <c r="G103" s="119" t="s">
+      <c r="F103" s="98"/>
+      <c r="G103" s="83" t="s">
         <v>344</v>
       </c>
       <c r="H103" s="42" t="s">
@@ -7872,15 +8015,15 @@
       </c>
     </row>
     <row r="104" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A104" s="129"/>
-      <c r="B104" s="131"/>
-      <c r="C104" s="131"/>
-      <c r="D104" s="129"/>
-      <c r="E104" s="119" t="s">
+      <c r="A104" s="94"/>
+      <c r="B104" s="98"/>
+      <c r="C104" s="98"/>
+      <c r="D104" s="94"/>
+      <c r="E104" s="83" t="s">
         <v>393</v>
       </c>
-      <c r="F104" s="131"/>
-      <c r="G104" s="119" t="s">
+      <c r="F104" s="98"/>
+      <c r="G104" s="83" t="s">
         <v>484</v>
       </c>
       <c r="H104" s="42" t="s">
@@ -7912,15 +8055,15 @@
       </c>
     </row>
     <row r="105" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A105" s="129"/>
-      <c r="B105" s="131"/>
-      <c r="C105" s="131"/>
-      <c r="D105" s="129"/>
-      <c r="E105" s="119" t="s">
+      <c r="A105" s="94"/>
+      <c r="B105" s="98"/>
+      <c r="C105" s="98"/>
+      <c r="D105" s="94"/>
+      <c r="E105" s="83" t="s">
         <v>323</v>
       </c>
-      <c r="F105" s="131"/>
-      <c r="G105" s="119" t="s">
+      <c r="F105" s="98"/>
+      <c r="G105" s="83" t="s">
         <v>486</v>
       </c>
       <c r="H105" s="42" t="s">
@@ -7952,15 +8095,15 @@
       </c>
     </row>
     <row r="106" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="129"/>
-      <c r="B106" s="131"/>
-      <c r="C106" s="131"/>
-      <c r="D106" s="129"/>
-      <c r="E106" s="119" t="s">
+      <c r="A106" s="94"/>
+      <c r="B106" s="98"/>
+      <c r="C106" s="98"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="F106" s="131"/>
-      <c r="G106" s="119" t="s">
+      <c r="F106" s="98"/>
+      <c r="G106" s="83" t="s">
         <v>347</v>
       </c>
       <c r="H106" s="42" t="s">
@@ -7992,15 +8135,15 @@
       </c>
     </row>
     <row r="107" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="129"/>
-      <c r="B107" s="131"/>
-      <c r="C107" s="131"/>
-      <c r="D107" s="129"/>
-      <c r="E107" s="119" t="s">
+      <c r="A107" s="94"/>
+      <c r="B107" s="98"/>
+      <c r="C107" s="98"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="F107" s="131"/>
-      <c r="G107" s="119" t="s">
+      <c r="F107" s="98"/>
+      <c r="G107" s="83" t="s">
         <v>349</v>
       </c>
       <c r="H107" s="42" t="s">
@@ -8032,15 +8175,15 @@
       </c>
     </row>
     <row r="108" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="129"/>
-      <c r="B108" s="131"/>
-      <c r="C108" s="131"/>
-      <c r="D108" s="129"/>
-      <c r="E108" s="119" t="s">
+      <c r="A108" s="94"/>
+      <c r="B108" s="98"/>
+      <c r="C108" s="98"/>
+      <c r="D108" s="94"/>
+      <c r="E108" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="F108" s="131"/>
-      <c r="G108" s="119" t="s">
+      <c r="F108" s="98"/>
+      <c r="G108" s="83" t="s">
         <v>351</v>
       </c>
       <c r="H108" s="42" t="s">
@@ -8072,15 +8215,15 @@
       </c>
     </row>
     <row r="109" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="129"/>
-      <c r="B109" s="131"/>
-      <c r="C109" s="131"/>
-      <c r="D109" s="129"/>
-      <c r="E109" s="119" t="s">
+      <c r="A109" s="94"/>
+      <c r="B109" s="98"/>
+      <c r="C109" s="98"/>
+      <c r="D109" s="94"/>
+      <c r="E109" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="F109" s="131"/>
-      <c r="G109" s="119" t="s">
+      <c r="F109" s="98"/>
+      <c r="G109" s="83" t="s">
         <v>353</v>
       </c>
       <c r="H109" s="42" t="s">
@@ -8112,15 +8255,15 @@
       </c>
     </row>
     <row r="110" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="129"/>
-      <c r="B110" s="131"/>
-      <c r="C110" s="131"/>
-      <c r="D110" s="129"/>
-      <c r="E110" s="119" t="s">
+      <c r="A110" s="94"/>
+      <c r="B110" s="98"/>
+      <c r="C110" s="98"/>
+      <c r="D110" s="94"/>
+      <c r="E110" s="83" t="s">
         <v>343</v>
       </c>
-      <c r="F110" s="131"/>
-      <c r="G110" s="119" t="s">
+      <c r="F110" s="98"/>
+      <c r="G110" s="83" t="s">
         <v>355</v>
       </c>
       <c r="H110" s="42" t="s">
@@ -8152,15 +8295,15 @@
       </c>
     </row>
     <row r="111" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A111" s="129"/>
-      <c r="B111" s="131"/>
-      <c r="C111" s="131"/>
-      <c r="D111" s="129"/>
-      <c r="E111" s="119" t="s">
+      <c r="A111" s="94"/>
+      <c r="B111" s="98"/>
+      <c r="C111" s="98"/>
+      <c r="D111" s="94"/>
+      <c r="E111" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="F111" s="131"/>
-      <c r="G111" s="119" t="s">
+      <c r="F111" s="98"/>
+      <c r="G111" s="83" t="s">
         <v>357</v>
       </c>
       <c r="H111" s="42" t="s">
@@ -8192,15 +8335,15 @@
       </c>
     </row>
     <row r="112" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A112" s="129"/>
-      <c r="B112" s="131"/>
-      <c r="C112" s="131"/>
-      <c r="D112" s="129"/>
-      <c r="E112" s="119" t="s">
+      <c r="A112" s="94"/>
+      <c r="B112" s="98"/>
+      <c r="C112" s="98"/>
+      <c r="D112" s="94"/>
+      <c r="E112" s="83" t="s">
         <v>346</v>
       </c>
-      <c r="F112" s="131"/>
-      <c r="G112" s="119" t="s">
+      <c r="F112" s="98"/>
+      <c r="G112" s="83" t="s">
         <v>359</v>
       </c>
       <c r="H112" s="42" t="s">
@@ -8232,15 +8375,15 @@
       </c>
     </row>
     <row r="113" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A113" s="129"/>
-      <c r="B113" s="131"/>
-      <c r="C113" s="131"/>
-      <c r="D113" s="129"/>
-      <c r="E113" s="119" t="s">
+      <c r="A113" s="94"/>
+      <c r="B113" s="98"/>
+      <c r="C113" s="98"/>
+      <c r="D113" s="94"/>
+      <c r="E113" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="F113" s="131"/>
-      <c r="G113" s="119" t="s">
+      <c r="F113" s="98"/>
+      <c r="G113" s="83" t="s">
         <v>361</v>
       </c>
       <c r="H113" s="42" t="s">
@@ -8272,25 +8415,25 @@
       </c>
     </row>
     <row r="114" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A114" s="130" t="s">
+      <c r="A114" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="132" t="s">
+      <c r="B114" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="132" t="s">
+      <c r="C114" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D114" s="130" t="s">
+      <c r="D114" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="E114" s="120" t="s">
+      <c r="E114" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="F114" s="132" t="s">
+      <c r="F114" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="G114" s="120" t="s">
+      <c r="G114" s="84" t="s">
         <v>138</v>
       </c>
       <c r="H114" s="29" t="s">
@@ -8322,15 +8465,15 @@
       </c>
     </row>
     <row r="115" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="130"/>
-      <c r="B115" s="132"/>
-      <c r="C115" s="132"/>
-      <c r="D115" s="130"/>
-      <c r="E115" s="120" t="s">
+      <c r="A115" s="95"/>
+      <c r="B115" s="99"/>
+      <c r="C115" s="99"/>
+      <c r="D115" s="95"/>
+      <c r="E115" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="F115" s="132"/>
-      <c r="G115" s="120" t="s">
+      <c r="F115" s="99"/>
+      <c r="G115" s="84" t="s">
         <v>139</v>
       </c>
       <c r="H115" s="29" t="s">
@@ -8362,15 +8505,15 @@
       </c>
     </row>
     <row r="116" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A116" s="130"/>
-      <c r="B116" s="132"/>
-      <c r="C116" s="132"/>
-      <c r="D116" s="130"/>
-      <c r="E116" s="120" t="s">
+      <c r="A116" s="95"/>
+      <c r="B116" s="99"/>
+      <c r="C116" s="99"/>
+      <c r="D116" s="95"/>
+      <c r="E116" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="F116" s="132"/>
-      <c r="G116" s="120" t="s">
+      <c r="F116" s="99"/>
+      <c r="G116" s="84" t="s">
         <v>365</v>
       </c>
       <c r="H116" s="29" t="s">
@@ -8402,15 +8545,15 @@
       </c>
     </row>
     <row r="117" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A117" s="130"/>
-      <c r="B117" s="132"/>
-      <c r="C117" s="132"/>
-      <c r="D117" s="130"/>
-      <c r="E117" s="120" t="s">
+      <c r="A117" s="95"/>
+      <c r="B117" s="99"/>
+      <c r="C117" s="99"/>
+      <c r="D117" s="95"/>
+      <c r="E117" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="F117" s="132"/>
-      <c r="G117" s="120" t="s">
+      <c r="F117" s="99"/>
+      <c r="G117" s="84" t="s">
         <v>367</v>
       </c>
       <c r="H117" s="29" t="s">
@@ -8442,15 +8585,15 @@
       </c>
     </row>
     <row r="118" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A118" s="130"/>
-      <c r="B118" s="132"/>
-      <c r="C118" s="132"/>
-      <c r="D118" s="130"/>
-      <c r="E118" s="120" t="s">
+      <c r="A118" s="95"/>
+      <c r="B118" s="99"/>
+      <c r="C118" s="99"/>
+      <c r="D118" s="95"/>
+      <c r="E118" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="F118" s="132"/>
-      <c r="G118" s="120" t="s">
+      <c r="F118" s="99"/>
+      <c r="G118" s="84" t="s">
         <v>369</v>
       </c>
       <c r="H118" s="29" t="s">
@@ -8482,15 +8625,15 @@
       </c>
     </row>
     <row r="119" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A119" s="130"/>
-      <c r="B119" s="132"/>
-      <c r="C119" s="132"/>
-      <c r="D119" s="130"/>
-      <c r="E119" s="120" t="s">
+      <c r="A119" s="95"/>
+      <c r="B119" s="99"/>
+      <c r="C119" s="99"/>
+      <c r="D119" s="95"/>
+      <c r="E119" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="F119" s="132"/>
-      <c r="G119" s="120" t="s">
+      <c r="F119" s="99"/>
+      <c r="G119" s="84" t="s">
         <v>371</v>
       </c>
       <c r="H119" s="29" t="s">
@@ -8522,15 +8665,15 @@
       </c>
     </row>
     <row r="120" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A120" s="130"/>
-      <c r="B120" s="132"/>
-      <c r="C120" s="132"/>
-      <c r="D120" s="130"/>
-      <c r="E120" s="120" t="s">
+      <c r="A120" s="95"/>
+      <c r="B120" s="99"/>
+      <c r="C120" s="99"/>
+      <c r="D120" s="95"/>
+      <c r="E120" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="F120" s="132"/>
-      <c r="G120" s="120" t="s">
+      <c r="F120" s="99"/>
+      <c r="G120" s="84" t="s">
         <v>373</v>
       </c>
       <c r="H120" s="29" t="s">
@@ -8562,15 +8705,15 @@
       </c>
     </row>
     <row r="121" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="130"/>
-      <c r="B121" s="132"/>
-      <c r="C121" s="132"/>
-      <c r="D121" s="130"/>
-      <c r="E121" s="120" t="s">
+      <c r="A121" s="95"/>
+      <c r="B121" s="99"/>
+      <c r="C121" s="99"/>
+      <c r="D121" s="95"/>
+      <c r="E121" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="F121" s="132"/>
-      <c r="G121" s="120" t="s">
+      <c r="F121" s="99"/>
+      <c r="G121" s="84" t="s">
         <v>375</v>
       </c>
       <c r="H121" s="29" t="s">
@@ -8602,15 +8745,15 @@
       </c>
     </row>
     <row r="122" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" s="130"/>
-      <c r="B122" s="132"/>
-      <c r="C122" s="132"/>
-      <c r="D122" s="130"/>
-      <c r="E122" s="120" t="s">
+      <c r="A122" s="95"/>
+      <c r="B122" s="99"/>
+      <c r="C122" s="99"/>
+      <c r="D122" s="95"/>
+      <c r="E122" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="F122" s="132"/>
-      <c r="G122" s="120" t="s">
+      <c r="F122" s="99"/>
+      <c r="G122" s="84" t="s">
         <v>377</v>
       </c>
       <c r="H122" s="29" t="s">
@@ -8642,15 +8785,15 @@
       </c>
     </row>
     <row r="123" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A123" s="130"/>
-      <c r="B123" s="132"/>
-      <c r="C123" s="132"/>
-      <c r="D123" s="130"/>
-      <c r="E123" s="120" t="s">
+      <c r="A123" s="95"/>
+      <c r="B123" s="99"/>
+      <c r="C123" s="99"/>
+      <c r="D123" s="95"/>
+      <c r="E123" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="F123" s="132"/>
-      <c r="G123" s="120" t="s">
+      <c r="F123" s="99"/>
+      <c r="G123" s="84" t="s">
         <v>379</v>
       </c>
       <c r="H123" s="29" t="s">
@@ -8682,15 +8825,15 @@
       </c>
     </row>
     <row r="124" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A124" s="130"/>
-      <c r="B124" s="132"/>
-      <c r="C124" s="132"/>
-      <c r="D124" s="130"/>
-      <c r="E124" s="120" t="s">
+      <c r="A124" s="95"/>
+      <c r="B124" s="99"/>
+      <c r="C124" s="99"/>
+      <c r="D124" s="95"/>
+      <c r="E124" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="F124" s="132"/>
-      <c r="G124" s="122" t="s">
+      <c r="F124" s="99"/>
+      <c r="G124" s="86" t="s">
         <v>381</v>
       </c>
       <c r="H124" s="29" t="s">
@@ -8722,15 +8865,15 @@
       </c>
     </row>
     <row r="125" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A125" s="130"/>
-      <c r="B125" s="132"/>
-      <c r="C125" s="132"/>
-      <c r="D125" s="130"/>
-      <c r="E125" s="120" t="s">
+      <c r="A125" s="95"/>
+      <c r="B125" s="99"/>
+      <c r="C125" s="99"/>
+      <c r="D125" s="95"/>
+      <c r="E125" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="F125" s="132"/>
-      <c r="G125" s="122" t="s">
+      <c r="F125" s="99"/>
+      <c r="G125" s="86" t="s">
         <v>382</v>
       </c>
       <c r="H125" s="29" t="s">
@@ -8762,15 +8905,15 @@
       </c>
     </row>
     <row r="126" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A126" s="130"/>
-      <c r="B126" s="132"/>
-      <c r="C126" s="132"/>
-      <c r="D126" s="130"/>
-      <c r="E126" s="120" t="s">
+      <c r="A126" s="95"/>
+      <c r="B126" s="99"/>
+      <c r="C126" s="99"/>
+      <c r="D126" s="95"/>
+      <c r="E126" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="F126" s="132"/>
-      <c r="G126" s="122" t="s">
+      <c r="F126" s="99"/>
+      <c r="G126" s="86" t="s">
         <v>383</v>
       </c>
       <c r="H126" s="29" t="s">
@@ -8802,15 +8945,15 @@
       </c>
     </row>
     <row r="127" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="130"/>
-      <c r="B127" s="132"/>
-      <c r="C127" s="132"/>
-      <c r="D127" s="130"/>
-      <c r="E127" s="120" t="s">
+      <c r="A127" s="95"/>
+      <c r="B127" s="99"/>
+      <c r="C127" s="99"/>
+      <c r="D127" s="95"/>
+      <c r="E127" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="F127" s="132"/>
-      <c r="G127" s="122" t="s">
+      <c r="F127" s="99"/>
+      <c r="G127" s="86" t="s">
         <v>384</v>
       </c>
       <c r="H127" s="29" t="s">
@@ -8842,15 +8985,15 @@
       </c>
     </row>
     <row r="128" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A128" s="130"/>
-      <c r="B128" s="132"/>
-      <c r="C128" s="132"/>
-      <c r="D128" s="130"/>
-      <c r="E128" s="120" t="s">
+      <c r="A128" s="95"/>
+      <c r="B128" s="99"/>
+      <c r="C128" s="99"/>
+      <c r="D128" s="95"/>
+      <c r="E128" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="F128" s="132"/>
-      <c r="G128" s="120" t="s">
+      <c r="F128" s="99"/>
+      <c r="G128" s="84" t="s">
         <v>389</v>
       </c>
       <c r="H128" s="29" t="s">
@@ -8882,25 +9025,25 @@
       </c>
     </row>
     <row r="129" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A129" s="129" t="s">
+      <c r="A129" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B129" s="129" t="s">
+      <c r="B129" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C129" s="129" t="s">
+      <c r="C129" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D129" s="129" t="s">
+      <c r="D129" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="E129" s="119" t="s">
+      <c r="E129" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F129" s="129" t="s">
+      <c r="F129" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="G129" s="119" t="s">
+      <c r="G129" s="83" t="s">
         <v>148</v>
       </c>
       <c r="H129" s="42" t="s">
@@ -8932,15 +9075,15 @@
       </c>
     </row>
     <row r="130" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A130" s="129"/>
-      <c r="B130" s="129"/>
-      <c r="C130" s="129"/>
-      <c r="D130" s="129"/>
-      <c r="E130" s="119" t="s">
+      <c r="A130" s="94"/>
+      <c r="B130" s="94"/>
+      <c r="C130" s="94"/>
+      <c r="D130" s="94"/>
+      <c r="E130" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F130" s="129"/>
-      <c r="G130" s="119" t="s">
+      <c r="F130" s="94"/>
+      <c r="G130" s="83" t="s">
         <v>391</v>
       </c>
       <c r="H130" s="42" t="s">
@@ -8972,15 +9115,15 @@
       </c>
     </row>
     <row r="131" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A131" s="129"/>
-      <c r="B131" s="129"/>
-      <c r="C131" s="129"/>
-      <c r="D131" s="129"/>
-      <c r="E131" s="119" t="s">
+      <c r="A131" s="94"/>
+      <c r="B131" s="94"/>
+      <c r="C131" s="94"/>
+      <c r="D131" s="94"/>
+      <c r="E131" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F131" s="129"/>
-      <c r="G131" s="119" t="s">
+      <c r="F131" s="94"/>
+      <c r="G131" s="83" t="s">
         <v>396</v>
       </c>
       <c r="H131" s="42" t="s">
@@ -9012,15 +9155,15 @@
       </c>
     </row>
     <row r="132" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A132" s="129"/>
-      <c r="B132" s="129"/>
-      <c r="C132" s="129"/>
-      <c r="D132" s="129"/>
-      <c r="E132" s="119" t="s">
+      <c r="A132" s="94"/>
+      <c r="B132" s="94"/>
+      <c r="C132" s="94"/>
+      <c r="D132" s="94"/>
+      <c r="E132" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F132" s="129"/>
-      <c r="G132" s="119" t="s">
+      <c r="F132" s="94"/>
+      <c r="G132" s="83" t="s">
         <v>398</v>
       </c>
       <c r="H132" s="42" t="s">
@@ -9052,15 +9195,15 @@
       </c>
     </row>
     <row r="133" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" s="129"/>
-      <c r="B133" s="129"/>
-      <c r="C133" s="129"/>
-      <c r="D133" s="129"/>
-      <c r="E133" s="119" t="s">
+      <c r="A133" s="94"/>
+      <c r="B133" s="94"/>
+      <c r="C133" s="94"/>
+      <c r="D133" s="94"/>
+      <c r="E133" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F133" s="129"/>
-      <c r="G133" s="119" t="s">
+      <c r="F133" s="94"/>
+      <c r="G133" s="83" t="s">
         <v>400</v>
       </c>
       <c r="H133" s="42" t="s">
@@ -9092,15 +9235,15 @@
       </c>
     </row>
     <row r="134" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A134" s="129"/>
-      <c r="B134" s="129"/>
-      <c r="C134" s="129"/>
-      <c r="D134" s="129"/>
-      <c r="E134" s="119" t="s">
+      <c r="A134" s="94"/>
+      <c r="B134" s="94"/>
+      <c r="C134" s="94"/>
+      <c r="D134" s="94"/>
+      <c r="E134" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F134" s="129"/>
-      <c r="G134" s="119" t="s">
+      <c r="F134" s="94"/>
+      <c r="G134" s="83" t="s">
         <v>402</v>
       </c>
       <c r="H134" s="42" t="s">
@@ -9132,15 +9275,15 @@
       </c>
     </row>
     <row r="135" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A135" s="129"/>
-      <c r="B135" s="129"/>
-      <c r="C135" s="129"/>
-      <c r="D135" s="129"/>
-      <c r="E135" s="119" t="s">
+      <c r="A135" s="94"/>
+      <c r="B135" s="94"/>
+      <c r="C135" s="94"/>
+      <c r="D135" s="94"/>
+      <c r="E135" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F135" s="129"/>
-      <c r="G135" s="119" t="s">
+      <c r="F135" s="94"/>
+      <c r="G135" s="83" t="s">
         <v>404</v>
       </c>
       <c r="H135" s="42" t="s">
@@ -9172,15 +9315,15 @@
       </c>
     </row>
     <row r="136" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A136" s="129"/>
-      <c r="B136" s="129"/>
-      <c r="C136" s="129"/>
-      <c r="D136" s="129"/>
-      <c r="E136" s="119" t="s">
+      <c r="A136" s="94"/>
+      <c r="B136" s="94"/>
+      <c r="C136" s="94"/>
+      <c r="D136" s="94"/>
+      <c r="E136" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F136" s="129"/>
-      <c r="G136" s="119" t="s">
+      <c r="F136" s="94"/>
+      <c r="G136" s="83" t="s">
         <v>406</v>
       </c>
       <c r="H136" s="42" t="s">
@@ -9212,15 +9355,15 @@
       </c>
     </row>
     <row r="137" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A137" s="129"/>
-      <c r="B137" s="129"/>
-      <c r="C137" s="129"/>
-      <c r="D137" s="129"/>
-      <c r="E137" s="119" t="s">
+      <c r="A137" s="94"/>
+      <c r="B137" s="94"/>
+      <c r="C137" s="94"/>
+      <c r="D137" s="94"/>
+      <c r="E137" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F137" s="129"/>
-      <c r="G137" s="119" t="s">
+      <c r="F137" s="94"/>
+      <c r="G137" s="83" t="s">
         <v>408</v>
       </c>
       <c r="H137" s="42" t="s">
@@ -9252,15 +9395,15 @@
       </c>
     </row>
     <row r="138" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A138" s="129"/>
-      <c r="B138" s="129"/>
-      <c r="C138" s="129"/>
-      <c r="D138" s="129"/>
-      <c r="E138" s="119" t="s">
+      <c r="A138" s="94"/>
+      <c r="B138" s="94"/>
+      <c r="C138" s="94"/>
+      <c r="D138" s="94"/>
+      <c r="E138" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F138" s="129"/>
-      <c r="G138" s="119" t="s">
+      <c r="F138" s="94"/>
+      <c r="G138" s="83" t="s">
         <v>410</v>
       </c>
       <c r="H138" s="42" t="s">
@@ -9292,15 +9435,15 @@
       </c>
     </row>
     <row r="139" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A139" s="129"/>
-      <c r="B139" s="129"/>
-      <c r="C139" s="129"/>
-      <c r="D139" s="129"/>
-      <c r="E139" s="119" t="s">
+      <c r="A139" s="94"/>
+      <c r="B139" s="94"/>
+      <c r="C139" s="94"/>
+      <c r="D139" s="94"/>
+      <c r="E139" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F139" s="129"/>
-      <c r="G139" s="119" t="s">
+      <c r="F139" s="94"/>
+      <c r="G139" s="83" t="s">
         <v>412</v>
       </c>
       <c r="H139" s="42" t="s">
@@ -9332,15 +9475,15 @@
       </c>
     </row>
     <row r="140" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A140" s="129"/>
-      <c r="B140" s="129"/>
-      <c r="C140" s="129"/>
-      <c r="D140" s="129"/>
-      <c r="E140" s="119" t="s">
+      <c r="A140" s="94"/>
+      <c r="B140" s="94"/>
+      <c r="C140" s="94"/>
+      <c r="D140" s="94"/>
+      <c r="E140" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F140" s="129"/>
-      <c r="G140" s="119" t="s">
+      <c r="F140" s="94"/>
+      <c r="G140" s="83" t="s">
         <v>414</v>
       </c>
       <c r="H140" s="42" t="s">
@@ -9372,15 +9515,15 @@
       </c>
     </row>
     <row r="141" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A141" s="129"/>
-      <c r="B141" s="129"/>
-      <c r="C141" s="129"/>
-      <c r="D141" s="129"/>
-      <c r="E141" s="119" t="s">
+      <c r="A141" s="94"/>
+      <c r="B141" s="94"/>
+      <c r="C141" s="94"/>
+      <c r="D141" s="94"/>
+      <c r="E141" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F141" s="129"/>
-      <c r="G141" s="119" t="s">
+      <c r="F141" s="94"/>
+      <c r="G141" s="83" t="s">
         <v>416</v>
       </c>
       <c r="H141" s="42" t="s">
@@ -9412,25 +9555,25 @@
       </c>
     </row>
     <row r="142" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A142" s="130" t="s">
+      <c r="A142" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B142" s="130" t="s">
+      <c r="B142" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="130" t="s">
+      <c r="C142" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D142" s="130" t="s">
+      <c r="D142" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="E142" s="120" t="s">
+      <c r="E142" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="F142" s="130" t="s">
+      <c r="F142" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="G142" s="120" t="s">
+      <c r="G142" s="84" t="s">
         <v>147</v>
       </c>
       <c r="H142" s="29" t="s">
@@ -9462,15 +9605,15 @@
       </c>
     </row>
     <row r="143" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A143" s="130"/>
-      <c r="B143" s="130"/>
-      <c r="C143" s="130"/>
-      <c r="D143" s="130"/>
-      <c r="E143" s="120" t="s">
+      <c r="A143" s="95"/>
+      <c r="B143" s="95"/>
+      <c r="C143" s="95"/>
+      <c r="D143" s="95"/>
+      <c r="E143" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="F143" s="130"/>
-      <c r="G143" s="120" t="s">
+      <c r="F143" s="95"/>
+      <c r="G143" s="84" t="s">
         <v>418</v>
       </c>
       <c r="H143" s="29" t="s">
@@ -9502,15 +9645,15 @@
       </c>
     </row>
     <row r="144" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A144" s="130"/>
-      <c r="B144" s="130"/>
-      <c r="C144" s="130"/>
-      <c r="D144" s="130"/>
-      <c r="E144" s="120" t="s">
+      <c r="A144" s="95"/>
+      <c r="B144" s="95"/>
+      <c r="C144" s="95"/>
+      <c r="D144" s="95"/>
+      <c r="E144" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="F144" s="130"/>
-      <c r="G144" s="120" t="s">
+      <c r="F144" s="95"/>
+      <c r="G144" s="84" t="s">
         <v>420</v>
       </c>
       <c r="H144" s="29" t="s">
@@ -9542,15 +9685,15 @@
       </c>
     </row>
     <row r="145" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="130"/>
-      <c r="B145" s="130"/>
-      <c r="C145" s="130"/>
-      <c r="D145" s="130"/>
-      <c r="E145" s="120" t="s">
+      <c r="A145" s="95"/>
+      <c r="B145" s="95"/>
+      <c r="C145" s="95"/>
+      <c r="D145" s="95"/>
+      <c r="E145" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="F145" s="130"/>
-      <c r="G145" s="120" t="s">
+      <c r="F145" s="95"/>
+      <c r="G145" s="84" t="s">
         <v>422</v>
       </c>
       <c r="H145" s="29" t="s">
@@ -9582,15 +9725,15 @@
       </c>
     </row>
     <row r="146" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="130"/>
-      <c r="B146" s="130"/>
-      <c r="C146" s="130"/>
-      <c r="D146" s="130"/>
-      <c r="E146" s="120" t="s">
+      <c r="A146" s="95"/>
+      <c r="B146" s="95"/>
+      <c r="C146" s="95"/>
+      <c r="D146" s="95"/>
+      <c r="E146" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="F146" s="130"/>
-      <c r="G146" s="120" t="s">
+      <c r="F146" s="95"/>
+      <c r="G146" s="84" t="s">
         <v>423</v>
       </c>
       <c r="H146" s="29" t="s">
@@ -9622,25 +9765,25 @@
       </c>
     </row>
     <row r="147" spans="1:16" ht="150" x14ac:dyDescent="0.25">
-      <c r="A147" s="129" t="s">
+      <c r="A147" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B147" s="131" t="s">
+      <c r="B147" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C147" s="131" t="s">
+      <c r="C147" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D147" s="129" t="s">
+      <c r="D147" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="E147" s="119" t="s">
+      <c r="E147" s="83" t="s">
         <v>427</v>
       </c>
-      <c r="F147" s="131" t="s">
+      <c r="F147" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="G147" s="119" t="s">
+      <c r="G147" s="83" t="s">
         <v>151</v>
       </c>
       <c r="H147" s="42" t="s">
@@ -9672,15 +9815,15 @@
       </c>
     </row>
     <row r="148" spans="1:16" ht="150" x14ac:dyDescent="0.25">
-      <c r="A148" s="129"/>
-      <c r="B148" s="131"/>
-      <c r="C148" s="131"/>
-      <c r="D148" s="129"/>
-      <c r="E148" s="119" t="s">
+      <c r="A148" s="94"/>
+      <c r="B148" s="98"/>
+      <c r="C148" s="98"/>
+      <c r="D148" s="94"/>
+      <c r="E148" s="83" t="s">
         <v>394</v>
       </c>
-      <c r="F148" s="131"/>
-      <c r="G148" s="119" t="s">
+      <c r="F148" s="98"/>
+      <c r="G148" s="83" t="s">
         <v>153</v>
       </c>
       <c r="H148" s="42" t="s">
@@ -9712,15 +9855,15 @@
       </c>
     </row>
     <row r="149" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A149" s="129"/>
-      <c r="B149" s="131"/>
-      <c r="C149" s="131"/>
-      <c r="D149" s="129"/>
-      <c r="E149" s="119" t="s">
+      <c r="A149" s="94"/>
+      <c r="B149" s="98"/>
+      <c r="C149" s="98"/>
+      <c r="D149" s="94"/>
+      <c r="E149" s="83" t="s">
         <v>427</v>
       </c>
-      <c r="F149" s="131"/>
-      <c r="G149" s="119" t="s">
+      <c r="F149" s="98"/>
+      <c r="G149" s="83" t="s">
         <v>426</v>
       </c>
       <c r="H149" s="42" t="s">
@@ -9752,15 +9895,15 @@
       </c>
     </row>
     <row r="150" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A150" s="129"/>
-      <c r="B150" s="131"/>
-      <c r="C150" s="131"/>
-      <c r="D150" s="129"/>
-      <c r="E150" s="119" t="s">
+      <c r="A150" s="94"/>
+      <c r="B150" s="98"/>
+      <c r="C150" s="98"/>
+      <c r="D150" s="94"/>
+      <c r="E150" s="83" t="s">
         <v>394</v>
       </c>
-      <c r="F150" s="131"/>
-      <c r="G150" s="119" t="s">
+      <c r="F150" s="98"/>
+      <c r="G150" s="83" t="s">
         <v>429</v>
       </c>
       <c r="H150" s="42" t="s">
@@ -9792,15 +9935,15 @@
       </c>
     </row>
     <row r="151" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A151" s="129"/>
-      <c r="B151" s="131"/>
-      <c r="C151" s="131"/>
-      <c r="D151" s="129"/>
-      <c r="E151" s="119" t="s">
+      <c r="A151" s="94"/>
+      <c r="B151" s="98"/>
+      <c r="C151" s="98"/>
+      <c r="D151" s="94"/>
+      <c r="E151" s="83" t="s">
         <v>427</v>
       </c>
-      <c r="F151" s="131"/>
-      <c r="G151" s="119" t="s">
+      <c r="F151" s="98"/>
+      <c r="G151" s="83" t="s">
         <v>431</v>
       </c>
       <c r="H151" s="42" t="s">
@@ -9832,13 +9975,13 @@
       </c>
     </row>
     <row r="152" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="129"/>
-      <c r="B152" s="131"/>
-      <c r="C152" s="131"/>
-      <c r="D152" s="129"/>
-      <c r="E152" s="119"/>
-      <c r="F152" s="131"/>
-      <c r="G152" s="119" t="s">
+      <c r="A152" s="94"/>
+      <c r="B152" s="98"/>
+      <c r="C152" s="98"/>
+      <c r="D152" s="94"/>
+      <c r="E152" s="83"/>
+      <c r="F152" s="98"/>
+      <c r="G152" s="83" t="s">
         <v>433</v>
       </c>
       <c r="H152" s="42" t="s">
@@ -9870,15 +10013,15 @@
       </c>
     </row>
     <row r="153" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A153" s="129"/>
-      <c r="B153" s="131"/>
-      <c r="C153" s="131"/>
-      <c r="D153" s="129"/>
-      <c r="E153" s="119" t="s">
+      <c r="A153" s="94"/>
+      <c r="B153" s="98"/>
+      <c r="C153" s="98"/>
+      <c r="D153" s="94"/>
+      <c r="E153" s="83" t="s">
         <v>394</v>
       </c>
-      <c r="F153" s="131"/>
-      <c r="G153" s="119" t="s">
+      <c r="F153" s="98"/>
+      <c r="G153" s="83" t="s">
         <v>435</v>
       </c>
       <c r="H153" s="42" t="s">
@@ -9910,15 +10053,15 @@
       </c>
     </row>
     <row r="154" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A154" s="129"/>
-      <c r="B154" s="131"/>
-      <c r="C154" s="131"/>
-      <c r="D154" s="129"/>
-      <c r="E154" s="119" t="s">
+      <c r="A154" s="94"/>
+      <c r="B154" s="98"/>
+      <c r="C154" s="98"/>
+      <c r="D154" s="94"/>
+      <c r="E154" s="83" t="s">
         <v>394</v>
       </c>
-      <c r="F154" s="131"/>
-      <c r="G154" s="119" t="s">
+      <c r="F154" s="98"/>
+      <c r="G154" s="83" t="s">
         <v>436</v>
       </c>
       <c r="H154" s="42" t="s">
@@ -9950,25 +10093,25 @@
       </c>
     </row>
     <row r="155" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A155" s="130" t="s">
+      <c r="A155" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B155" s="132" t="s">
+      <c r="B155" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="132" t="s">
+      <c r="C155" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D155" s="130" t="s">
+      <c r="D155" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="E155" s="120" t="s">
+      <c r="E155" s="84" t="s">
         <v>439</v>
       </c>
-      <c r="F155" s="132" t="s">
+      <c r="F155" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="G155" s="120" t="s">
+      <c r="G155" s="84" t="s">
         <v>162</v>
       </c>
       <c r="H155" s="29" t="s">
@@ -10000,15 +10143,15 @@
       </c>
     </row>
     <row r="156" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A156" s="130"/>
-      <c r="B156" s="132"/>
-      <c r="C156" s="132"/>
-      <c r="D156" s="130"/>
-      <c r="E156" s="120" t="s">
+      <c r="A156" s="95"/>
+      <c r="B156" s="99"/>
+      <c r="C156" s="99"/>
+      <c r="D156" s="95"/>
+      <c r="E156" s="84" t="s">
         <v>395</v>
       </c>
-      <c r="F156" s="132"/>
-      <c r="G156" s="120" t="s">
+      <c r="F156" s="99"/>
+      <c r="G156" s="84" t="s">
         <v>163</v>
       </c>
       <c r="H156" s="29" t="s">
@@ -10040,15 +10183,15 @@
       </c>
     </row>
     <row r="157" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A157" s="130"/>
-      <c r="B157" s="132"/>
-      <c r="C157" s="132"/>
-      <c r="D157" s="130"/>
-      <c r="E157" s="120" t="s">
+      <c r="A157" s="95"/>
+      <c r="B157" s="99"/>
+      <c r="C157" s="99"/>
+      <c r="D157" s="95"/>
+      <c r="E157" s="84" t="s">
         <v>439</v>
       </c>
-      <c r="F157" s="132"/>
-      <c r="G157" s="120" t="s">
+      <c r="F157" s="99"/>
+      <c r="G157" s="84" t="s">
         <v>164</v>
       </c>
       <c r="H157" s="29" t="s">
@@ -10080,15 +10223,15 @@
       </c>
     </row>
     <row r="158" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A158" s="130"/>
-      <c r="B158" s="132"/>
-      <c r="C158" s="132"/>
-      <c r="D158" s="130"/>
-      <c r="E158" s="120" t="s">
+      <c r="A158" s="95"/>
+      <c r="B158" s="99"/>
+      <c r="C158" s="99"/>
+      <c r="D158" s="95"/>
+      <c r="E158" s="84" t="s">
         <v>395</v>
       </c>
-      <c r="F158" s="132"/>
-      <c r="G158" s="120" t="s">
+      <c r="F158" s="99"/>
+      <c r="G158" s="84" t="s">
         <v>165</v>
       </c>
       <c r="H158" s="29" t="s">
@@ -10120,15 +10263,15 @@
       </c>
     </row>
     <row r="159" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A159" s="130"/>
-      <c r="B159" s="132"/>
-      <c r="C159" s="132"/>
-      <c r="D159" s="130"/>
-      <c r="E159" s="120" t="s">
+      <c r="A159" s="95"/>
+      <c r="B159" s="99"/>
+      <c r="C159" s="99"/>
+      <c r="D159" s="95"/>
+      <c r="E159" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="F159" s="132"/>
-      <c r="G159" s="120" t="s">
+      <c r="F159" s="99"/>
+      <c r="G159" s="84" t="s">
         <v>166</v>
       </c>
       <c r="H159" s="29" t="s">
@@ -10160,15 +10303,15 @@
       </c>
     </row>
     <row r="160" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A160" s="130"/>
-      <c r="B160" s="132"/>
-      <c r="C160" s="132"/>
-      <c r="D160" s="130"/>
-      <c r="E160" s="120" t="s">
+      <c r="A160" s="95"/>
+      <c r="B160" s="99"/>
+      <c r="C160" s="99"/>
+      <c r="D160" s="95"/>
+      <c r="E160" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="F160" s="132"/>
-      <c r="G160" s="120" t="s">
+      <c r="F160" s="99"/>
+      <c r="G160" s="84" t="s">
         <v>167</v>
       </c>
       <c r="H160" s="29" t="s">
@@ -10200,15 +10343,15 @@
       </c>
     </row>
     <row r="161" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A161" s="130"/>
-      <c r="B161" s="132"/>
-      <c r="C161" s="132"/>
-      <c r="D161" s="130"/>
-      <c r="E161" s="120" t="s">
+      <c r="A161" s="95"/>
+      <c r="B161" s="99"/>
+      <c r="C161" s="99"/>
+      <c r="D161" s="95"/>
+      <c r="E161" s="84" t="s">
         <v>439</v>
       </c>
-      <c r="F161" s="132"/>
-      <c r="G161" s="120" t="s">
+      <c r="F161" s="99"/>
+      <c r="G161" s="84" t="s">
         <v>440</v>
       </c>
       <c r="H161" s="29" t="s">
@@ -10240,15 +10383,15 @@
       </c>
     </row>
     <row r="162" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A162" s="130"/>
-      <c r="B162" s="132"/>
-      <c r="C162" s="132"/>
-      <c r="D162" s="130"/>
-      <c r="E162" s="120" t="s">
+      <c r="A162" s="95"/>
+      <c r="B162" s="99"/>
+      <c r="C162" s="99"/>
+      <c r="D162" s="95"/>
+      <c r="E162" s="84" t="s">
         <v>395</v>
       </c>
-      <c r="F162" s="132"/>
-      <c r="G162" s="120" t="s">
+      <c r="F162" s="99"/>
+      <c r="G162" s="84" t="s">
         <v>441</v>
       </c>
       <c r="H162" s="29" t="s">
@@ -10280,15 +10423,15 @@
       </c>
     </row>
     <row r="163" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A163" s="130"/>
-      <c r="B163" s="132"/>
-      <c r="C163" s="132"/>
-      <c r="D163" s="130"/>
-      <c r="E163" s="120" t="s">
+      <c r="A163" s="95"/>
+      <c r="B163" s="99"/>
+      <c r="C163" s="99"/>
+      <c r="D163" s="95"/>
+      <c r="E163" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="F163" s="132"/>
-      <c r="G163" s="120" t="s">
+      <c r="F163" s="99"/>
+      <c r="G163" s="84" t="s">
         <v>444</v>
       </c>
       <c r="H163" s="29" t="s">
@@ -10320,15 +10463,15 @@
       </c>
     </row>
     <row r="164" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A164" s="130"/>
-      <c r="B164" s="132"/>
-      <c r="C164" s="132"/>
-      <c r="D164" s="130"/>
-      <c r="E164" s="120" t="s">
+      <c r="A164" s="95"/>
+      <c r="B164" s="99"/>
+      <c r="C164" s="99"/>
+      <c r="D164" s="95"/>
+      <c r="E164" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="F164" s="132"/>
-      <c r="G164" s="120" t="s">
+      <c r="F164" s="99"/>
+      <c r="G164" s="84" t="s">
         <v>446</v>
       </c>
       <c r="H164" s="29" t="s">
@@ -10360,13 +10503,13 @@
       </c>
     </row>
     <row r="165" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A165" s="130"/>
-      <c r="B165" s="132"/>
-      <c r="C165" s="132"/>
-      <c r="D165" s="130"/>
-      <c r="E165" s="120"/>
-      <c r="F165" s="132"/>
-      <c r="G165" s="120" t="s">
+      <c r="A165" s="95"/>
+      <c r="B165" s="99"/>
+      <c r="C165" s="99"/>
+      <c r="D165" s="95"/>
+      <c r="E165" s="84"/>
+      <c r="F165" s="99"/>
+      <c r="G165" s="84" t="s">
         <v>447</v>
       </c>
       <c r="H165" s="29" t="s">
@@ -10398,15 +10541,15 @@
       </c>
     </row>
     <row r="166" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A166" s="130"/>
-      <c r="B166" s="132"/>
-      <c r="C166" s="132"/>
-      <c r="D166" s="130"/>
-      <c r="E166" s="120" t="s">
+      <c r="A166" s="95"/>
+      <c r="B166" s="99"/>
+      <c r="C166" s="99"/>
+      <c r="D166" s="95"/>
+      <c r="E166" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="F166" s="132"/>
-      <c r="G166" s="120" t="s">
+      <c r="F166" s="99"/>
+      <c r="G166" s="84" t="s">
         <v>448</v>
       </c>
       <c r="H166" s="29" t="s">
@@ -10438,15 +10581,15 @@
       </c>
     </row>
     <row r="167" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A167" s="130"/>
-      <c r="B167" s="132"/>
-      <c r="C167" s="132"/>
-      <c r="D167" s="130"/>
-      <c r="E167" s="120" t="s">
+      <c r="A167" s="95"/>
+      <c r="B167" s="99"/>
+      <c r="C167" s="99"/>
+      <c r="D167" s="95"/>
+      <c r="E167" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="F167" s="132"/>
-      <c r="G167" s="120" t="s">
+      <c r="F167" s="99"/>
+      <c r="G167" s="84" t="s">
         <v>449</v>
       </c>
       <c r="H167" s="29" t="s">
@@ -10478,13 +10621,13 @@
       </c>
     </row>
     <row r="168" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A168" s="130"/>
-      <c r="B168" s="132"/>
-      <c r="C168" s="132"/>
-      <c r="D168" s="130"/>
-      <c r="E168" s="120"/>
-      <c r="F168" s="132"/>
-      <c r="G168" s="120" t="s">
+      <c r="A168" s="95"/>
+      <c r="B168" s="99"/>
+      <c r="C168" s="99"/>
+      <c r="D168" s="95"/>
+      <c r="E168" s="84"/>
+      <c r="F168" s="99"/>
+      <c r="G168" s="84" t="s">
         <v>454</v>
       </c>
       <c r="H168" s="29" t="s">
@@ -10516,15 +10659,15 @@
       </c>
     </row>
     <row r="169" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A169" s="130"/>
-      <c r="B169" s="132"/>
-      <c r="C169" s="132"/>
-      <c r="D169" s="130"/>
-      <c r="E169" s="120" t="s">
+      <c r="A169" s="95"/>
+      <c r="B169" s="99"/>
+      <c r="C169" s="99"/>
+      <c r="D169" s="95"/>
+      <c r="E169" s="84" t="s">
         <v>439</v>
       </c>
-      <c r="F169" s="132"/>
-      <c r="G169" s="120" t="s">
+      <c r="F169" s="99"/>
+      <c r="G169" s="84" t="s">
         <v>456</v>
       </c>
       <c r="H169" s="29" t="s">
@@ -10556,15 +10699,15 @@
       </c>
     </row>
     <row r="170" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A170" s="130"/>
-      <c r="B170" s="132"/>
-      <c r="C170" s="132"/>
-      <c r="D170" s="130"/>
-      <c r="E170" s="120" t="s">
+      <c r="A170" s="95"/>
+      <c r="B170" s="99"/>
+      <c r="C170" s="99"/>
+      <c r="D170" s="95"/>
+      <c r="E170" s="84" t="s">
         <v>439</v>
       </c>
-      <c r="F170" s="132"/>
-      <c r="G170" s="122" t="s">
+      <c r="F170" s="99"/>
+      <c r="G170" s="86" t="s">
         <v>458</v>
       </c>
       <c r="H170" s="29" t="s">
@@ -10596,15 +10739,15 @@
       </c>
     </row>
     <row r="171" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A171" s="130"/>
-      <c r="B171" s="132"/>
-      <c r="C171" s="132"/>
-      <c r="D171" s="130"/>
-      <c r="E171" s="120" t="s">
+      <c r="A171" s="95"/>
+      <c r="B171" s="99"/>
+      <c r="C171" s="99"/>
+      <c r="D171" s="95"/>
+      <c r="E171" s="84" t="s">
         <v>439</v>
       </c>
-      <c r="F171" s="132"/>
-      <c r="G171" s="120" t="s">
+      <c r="F171" s="99"/>
+      <c r="G171" s="84" t="s">
         <v>460</v>
       </c>
       <c r="H171" s="29" t="s">
@@ -10636,15 +10779,15 @@
       </c>
     </row>
     <row r="172" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A172" s="130"/>
-      <c r="B172" s="132"/>
-      <c r="C172" s="132"/>
-      <c r="D172" s="130"/>
-      <c r="E172" s="120" t="s">
+      <c r="A172" s="95"/>
+      <c r="B172" s="99"/>
+      <c r="C172" s="99"/>
+      <c r="D172" s="95"/>
+      <c r="E172" s="84" t="s">
         <v>395</v>
       </c>
-      <c r="F172" s="132"/>
-      <c r="G172" s="120" t="s">
+      <c r="F172" s="99"/>
+      <c r="G172" s="84" t="s">
         <v>462</v>
       </c>
       <c r="H172" s="29" t="s">
@@ -10676,25 +10819,25 @@
       </c>
     </row>
     <row r="173" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A173" s="129" t="s">
+      <c r="A173" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B173" s="129" t="s">
+      <c r="B173" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="129" t="s">
+      <c r="C173" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D173" s="129" t="s">
+      <c r="D173" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="E173" s="119" t="s">
+      <c r="E173" s="83" t="s">
         <v>464</v>
       </c>
-      <c r="F173" s="129" t="s">
+      <c r="F173" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="G173" s="119" t="s">
+      <c r="G173" s="83" t="s">
         <v>81</v>
       </c>
       <c r="H173" s="42" t="s">
@@ -10726,15 +10869,15 @@
       </c>
     </row>
     <row r="174" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A174" s="129"/>
-      <c r="B174" s="129"/>
-      <c r="C174" s="129"/>
-      <c r="D174" s="129"/>
-      <c r="E174" s="119" t="s">
+      <c r="A174" s="94"/>
+      <c r="B174" s="94"/>
+      <c r="C174" s="94"/>
+      <c r="D174" s="94"/>
+      <c r="E174" s="83" t="s">
         <v>324</v>
       </c>
-      <c r="F174" s="129"/>
-      <c r="G174" s="119" t="s">
+      <c r="F174" s="94"/>
+      <c r="G174" s="83" t="s">
         <v>82</v>
       </c>
       <c r="H174" s="42" t="s">
@@ -10766,15 +10909,15 @@
       </c>
     </row>
     <row r="175" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A175" s="129"/>
-      <c r="B175" s="129"/>
-      <c r="C175" s="129"/>
-      <c r="D175" s="129"/>
-      <c r="E175" s="119" t="s">
+      <c r="A175" s="94"/>
+      <c r="B175" s="94"/>
+      <c r="C175" s="94"/>
+      <c r="D175" s="94"/>
+      <c r="E175" s="83" t="s">
         <v>464</v>
       </c>
-      <c r="F175" s="129"/>
-      <c r="G175" s="133" t="s">
+      <c r="F175" s="94"/>
+      <c r="G175" s="93" t="s">
         <v>470</v>
       </c>
       <c r="H175" s="42" t="s">
@@ -10806,15 +10949,15 @@
       </c>
     </row>
     <row r="176" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A176" s="129"/>
-      <c r="B176" s="129"/>
-      <c r="C176" s="129"/>
-      <c r="D176" s="129"/>
-      <c r="E176" s="119" t="s">
+      <c r="A176" s="94"/>
+      <c r="B176" s="94"/>
+      <c r="C176" s="94"/>
+      <c r="D176" s="94"/>
+      <c r="E176" s="83" t="s">
         <v>324</v>
       </c>
-      <c r="F176" s="129"/>
-      <c r="G176" s="133" t="s">
+      <c r="F176" s="94"/>
+      <c r="G176" s="93" t="s">
         <v>471</v>
       </c>
       <c r="H176" s="42" t="s">
@@ -10846,15 +10989,15 @@
       </c>
     </row>
     <row r="177" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A177" s="129"/>
-      <c r="B177" s="129"/>
-      <c r="C177" s="129"/>
-      <c r="D177" s="129"/>
-      <c r="E177" s="119" t="s">
+      <c r="A177" s="94"/>
+      <c r="B177" s="94"/>
+      <c r="C177" s="94"/>
+      <c r="D177" s="94"/>
+      <c r="E177" s="83" t="s">
         <v>324</v>
       </c>
-      <c r="F177" s="129"/>
-      <c r="G177" s="133" t="s">
+      <c r="F177" s="94"/>
+      <c r="G177" s="93" t="s">
         <v>472</v>
       </c>
       <c r="H177" s="42" t="s">
@@ -10886,15 +11029,15 @@
       </c>
     </row>
     <row r="178" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A178" s="129"/>
-      <c r="B178" s="129"/>
-      <c r="C178" s="129"/>
-      <c r="D178" s="129"/>
-      <c r="E178" s="119" t="s">
+      <c r="A178" s="94"/>
+      <c r="B178" s="94"/>
+      <c r="C178" s="94"/>
+      <c r="D178" s="94"/>
+      <c r="E178" s="83" t="s">
         <v>464</v>
       </c>
-      <c r="F178" s="129"/>
-      <c r="G178" s="119" t="s">
+      <c r="F178" s="94"/>
+      <c r="G178" s="83" t="s">
         <v>473</v>
       </c>
       <c r="H178" s="42" t="s">
@@ -10926,15 +11069,15 @@
       </c>
     </row>
     <row r="179" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A179" s="129"/>
-      <c r="B179" s="129"/>
-      <c r="C179" s="129"/>
-      <c r="D179" s="129"/>
-      <c r="E179" s="119" t="s">
+      <c r="A179" s="94"/>
+      <c r="B179" s="94"/>
+      <c r="C179" s="94"/>
+      <c r="D179" s="94"/>
+      <c r="E179" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="F179" s="129"/>
-      <c r="G179" s="119" t="s">
+      <c r="F179" s="94"/>
+      <c r="G179" s="83" t="s">
         <v>474</v>
       </c>
       <c r="H179" s="42" t="s">
@@ -10966,15 +11109,15 @@
       </c>
     </row>
     <row r="180" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A180" s="129"/>
-      <c r="B180" s="129"/>
-      <c r="C180" s="129"/>
-      <c r="D180" s="129"/>
-      <c r="E180" s="119" t="s">
+      <c r="A180" s="94"/>
+      <c r="B180" s="94"/>
+      <c r="C180" s="94"/>
+      <c r="D180" s="94"/>
+      <c r="E180" s="83" t="s">
         <v>465</v>
       </c>
-      <c r="F180" s="129"/>
-      <c r="G180" s="133" t="s">
+      <c r="F180" s="94"/>
+      <c r="G180" s="93" t="s">
         <v>475</v>
       </c>
       <c r="H180" s="42" t="s">
@@ -11005,56 +11148,198 @@
         <v>178</v>
       </c>
     </row>
+    <row r="181" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B181" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" s="145" t="s">
+        <v>488</v>
+      </c>
+      <c r="D181" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="E181" s="136"/>
+      <c r="F181" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="G181" s="146" t="s">
+        <v>505</v>
+      </c>
+      <c r="H181" s="136" t="s">
+        <v>94</v>
+      </c>
+      <c r="I181" s="147" t="s">
+        <v>506</v>
+      </c>
+      <c r="J181" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="K181" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="L181" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="M181" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="N181" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="O181" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="P181" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A182" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B182" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C182" s="145" t="s">
+        <v>488</v>
+      </c>
+      <c r="D182" s="139" t="s">
+        <v>491</v>
+      </c>
+      <c r="E182" s="31"/>
+      <c r="F182" s="139" t="s">
+        <v>498</v>
+      </c>
+      <c r="G182" s="139" t="s">
+        <v>508</v>
+      </c>
+      <c r="H182" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I182" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="J182" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K182" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="L182" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M182" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="N182" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="O182" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P182" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A183" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B183" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183" s="145" t="s">
+        <v>488</v>
+      </c>
+      <c r="D183" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="E183" s="136"/>
+      <c r="F183" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="G183" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="H183" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I183" s="148"/>
+      <c r="J183" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="K183" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="L183" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="M183" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="N183" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="O183" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="P183" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A184" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B184" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C184" s="145" t="s">
+        <v>488</v>
+      </c>
+      <c r="D184" s="139" t="s">
+        <v>493</v>
+      </c>
+      <c r="E184" s="31"/>
+      <c r="F184" s="139" t="s">
+        <v>500</v>
+      </c>
+      <c r="G184" s="139" t="s">
+        <v>508</v>
+      </c>
+      <c r="H184" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I184" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="J184" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K184" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="L184" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M184" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="N184" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="O184" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P184" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="F173:F180"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="D142:D146"/>
-    <mergeCell ref="F142:F146"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A129:A141"/>
-    <mergeCell ref="B129:B141"/>
-    <mergeCell ref="C129:C141"/>
-    <mergeCell ref="D129:D141"/>
-    <mergeCell ref="F129:F141"/>
-    <mergeCell ref="A13:A28"/>
-    <mergeCell ref="B13:B28"/>
-    <mergeCell ref="C13:C28"/>
-    <mergeCell ref="D13:D28"/>
-    <mergeCell ref="F13:F28"/>
-    <mergeCell ref="F147:F154"/>
-    <mergeCell ref="F155:F172"/>
-    <mergeCell ref="A155:A172"/>
-    <mergeCell ref="B155:B172"/>
-    <mergeCell ref="C155:C172"/>
-    <mergeCell ref="D147:D154"/>
-    <mergeCell ref="D155:D172"/>
-    <mergeCell ref="A147:A154"/>
-    <mergeCell ref="B147:B154"/>
-    <mergeCell ref="C147:C154"/>
-    <mergeCell ref="A173:A180"/>
-    <mergeCell ref="B173:B180"/>
-    <mergeCell ref="C173:C180"/>
-    <mergeCell ref="D173:D180"/>
-    <mergeCell ref="C100:C113"/>
-    <mergeCell ref="D100:D113"/>
-    <mergeCell ref="F100:F113"/>
-    <mergeCell ref="A114:A128"/>
-    <mergeCell ref="B114:B128"/>
-    <mergeCell ref="C114:C128"/>
-    <mergeCell ref="D114:D128"/>
-    <mergeCell ref="F29:F66"/>
-    <mergeCell ref="A67:A99"/>
-    <mergeCell ref="B67:B99"/>
-    <mergeCell ref="C67:C99"/>
-    <mergeCell ref="F114:F128"/>
-    <mergeCell ref="D67:D99"/>
-    <mergeCell ref="F67:F99"/>
-    <mergeCell ref="A100:A113"/>
-    <mergeCell ref="B100:B113"/>
-    <mergeCell ref="A29:A66"/>
-    <mergeCell ref="B29:B66"/>
     <mergeCell ref="C29:C66"/>
     <mergeCell ref="D29:D66"/>
     <mergeCell ref="B1:P1"/>
@@ -11067,94 +11352,156 @@
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A173:A180"/>
+    <mergeCell ref="B173:B180"/>
+    <mergeCell ref="C173:C180"/>
+    <mergeCell ref="D173:D180"/>
+    <mergeCell ref="C100:C113"/>
+    <mergeCell ref="D100:D113"/>
+    <mergeCell ref="A114:A128"/>
+    <mergeCell ref="B114:B128"/>
+    <mergeCell ref="C114:C128"/>
+    <mergeCell ref="D114:D128"/>
+    <mergeCell ref="A100:A113"/>
+    <mergeCell ref="B100:B113"/>
+    <mergeCell ref="A155:A172"/>
+    <mergeCell ref="B155:B172"/>
+    <mergeCell ref="C155:C172"/>
+    <mergeCell ref="D147:D154"/>
+    <mergeCell ref="D155:D172"/>
+    <mergeCell ref="A147:A154"/>
+    <mergeCell ref="B147:B154"/>
+    <mergeCell ref="C147:C154"/>
+    <mergeCell ref="F129:F141"/>
+    <mergeCell ref="A13:A28"/>
+    <mergeCell ref="B13:B28"/>
+    <mergeCell ref="C13:C28"/>
+    <mergeCell ref="D13:D28"/>
+    <mergeCell ref="F13:F28"/>
+    <mergeCell ref="F100:F113"/>
+    <mergeCell ref="F29:F66"/>
+    <mergeCell ref="A67:A99"/>
+    <mergeCell ref="B67:B99"/>
+    <mergeCell ref="C67:C99"/>
+    <mergeCell ref="F114:F128"/>
+    <mergeCell ref="D67:D99"/>
+    <mergeCell ref="F67:F99"/>
+    <mergeCell ref="A29:A66"/>
+    <mergeCell ref="B29:B66"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A129:A141"/>
+    <mergeCell ref="B129:B141"/>
+    <mergeCell ref="C129:C141"/>
+    <mergeCell ref="D129:D141"/>
+    <mergeCell ref="F173:F180"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="D142:D146"/>
+    <mergeCell ref="F142:F146"/>
+    <mergeCell ref="F147:F154"/>
+    <mergeCell ref="F155:F172"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="C13 C114:C127 C129 C173 C155 C29:C66 C142 C147:C153">
-    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="35" operator="equal">
       <formula>"Transition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
       <formula>"Non-Functional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
       <formula>"Functional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
       <formula>"Stakeholder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="39" operator="equal">
       <formula>"Business"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>"Transition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"Non-Functional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>"Functional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
       <formula>"Stakeholder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>"Business"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:C112">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Transition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"Non-Functional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"Functional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>"Stakeholder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
       <formula>"Business"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13:P180">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+  <conditionalFormatting sqref="P13:P183">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"Partial Completion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K173:L173 J173:J174 J175:L180 J13:L172">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K174:L174">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P184">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Partial Completion"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P13:P180" xr:uid="{DE599C1E-0158-4941-9F38-BA5C70ED9005}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P13:P184" xr:uid="{DE599C1E-0158-4941-9F38-BA5C70ED9005}">
       <formula1>"Not Started, In Progress, Partial Completion, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J13:L180" xr:uid="{05A40619-CE08-459D-A5A4-612B55F4AAE0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J13:L184" xr:uid="{05A40619-CE08-459D-A5A4-612B55F4AAE0}">
       <formula1>"Pass, Fail, N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11167,7 +11514,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A17" sqref="A17:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11183,11 +11530,11 @@
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
@@ -11381,10 +11728,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF817351-2F26-4778-957D-B7C82523BC0F}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11398,39 +11745,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="A1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:6" ht="41.25" x14ac:dyDescent="0.7">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="96"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="16"/>
@@ -11662,6 +12009,100 @@
       <c r="F16" s="40">
         <v>3</v>
       </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="140" t="s">
+        <v>489</v>
+      </c>
+      <c r="D17" s="136">
+        <v>10</v>
+      </c>
+      <c r="E17" s="136" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="141">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="137" t="s">
+        <v>494</v>
+      </c>
+      <c r="D18" s="1">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="139">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="136" t="s">
+        <v>492</v>
+      </c>
+      <c r="B19" s="136" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="135" t="s">
+        <v>495</v>
+      </c>
+      <c r="D19" s="136">
+        <v>20</v>
+      </c>
+      <c r="E19" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="141">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="139">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="77"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="77"/>
+      <c r="C23" s="138"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="77"/>
+      <c r="C24" s="138"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11671,15 +12112,16 @@
     <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DACF986-264E-4C2B-8DB1-83494F024F65}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11689,50 +12131,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="106"/>
-      <c r="B1" s="107"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="A1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" spans="1:6" ht="41.25" x14ac:dyDescent="0.7">
       <c r="A2" s="14"/>
       <c r="B2" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="115" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
@@ -11754,7 +12196,7 @@
       <c r="A8" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="69" t="s">
         <v>108</v>
       </c>
     </row>
@@ -11762,7 +12204,7 @@
       <c r="A9" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="70" t="s">
         <v>117</v>
       </c>
     </row>
@@ -11770,7 +12212,7 @@
       <c r="A10" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="69" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11778,7 +12220,7 @@
       <c r="A11" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="70" t="s">
         <v>137</v>
       </c>
     </row>
@@ -11802,7 +12244,7 @@
       <c r="A14" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="71" t="s">
         <v>150</v>
       </c>
     </row>
@@ -11812,6 +12254,38 @@
       </c>
       <c r="B15" s="47" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="142" t="s">
+        <v>497</v>
+      </c>
+      <c r="B16" s="143" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
+        <v>498</v>
+      </c>
+      <c r="B17" s="144" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="142" t="s">
+        <v>499</v>
+      </c>
+      <c r="B18" s="143" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
+        <v>500</v>
+      </c>
+      <c r="B19" s="144" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
